--- a/CV/Treino/Enviar_3/dados.xlsx
+++ b/CV/Treino/Enviar_3/dados.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shannon_entropy</t>
+          <t>entropy</t>
         </is>
       </c>
     </row>

--- a/CV/Treino/Enviar_3/dados.xlsx
+++ b/CV/Treino/Enviar_3/dados.xlsx
@@ -478,4733 +478,4733 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>img275_2.jpg</t>
+          <t>img100_3.jpg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>273.7434358589647</v>
+        <v>327.8815119689658</v>
       </c>
       <c r="D2" t="n">
-        <v>8257.630204883366</v>
+        <v>6392.288054105268</v>
       </c>
       <c r="E2" t="n">
-        <v>1.941392778477027</v>
+        <v>0.622529991088689</v>
       </c>
       <c r="F2" t="n">
-        <v>8.762488601726035</v>
+        <v>5.883725636512311</v>
       </c>
       <c r="G2" t="n">
-        <v>4984484</v>
+        <v>248219622</v>
       </c>
       <c r="H2" t="n">
-        <v>22.50256358741458</v>
+        <v>21.82117883944082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>img153_3.jpg</t>
+          <t>img244_3.jpg</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>400.0062769082203</v>
+        <v>403.0970827970829</v>
       </c>
       <c r="D3" t="n">
-        <v>12874.57181631155</v>
+        <v>9675.431392658516</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08177206730574485</v>
+        <v>-0.3349232416625966</v>
       </c>
       <c r="F3" t="n">
-        <v>5.311470778816656</v>
+        <v>6.111258658944963</v>
       </c>
       <c r="G3" t="n">
-        <v>1799922438</v>
+        <v>32678298</v>
       </c>
       <c r="H3" t="n">
-        <v>23.31875291178257</v>
+        <v>23.19478061473424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>img95_3.jpg</t>
+          <t>img222_1.jpg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>370.5533640870547</v>
+        <v>278.6609265734266</v>
       </c>
       <c r="D4" t="n">
-        <v>7385.657873736577</v>
+        <v>7133.583666083152</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.08717266292854217</v>
+        <v>1.844400170045466</v>
       </c>
       <c r="F4" t="n">
-        <v>6.209528043574537</v>
+        <v>7.666470508501824</v>
       </c>
       <c r="G4" t="n">
-        <v>1154656925</v>
+        <v>10722474</v>
       </c>
       <c r="H4" t="n">
-        <v>22.68042603332743</v>
+        <v>22.22524023973336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>img83_4.jpg</t>
+          <t>img77_3.jpg</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>370.0397310513447</v>
+        <v>489.8687855113636</v>
       </c>
       <c r="D5" t="n">
-        <v>13227.12414765535</v>
+        <v>14148.36617526346</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8398422851846032</v>
+        <v>-1.308132142620098</v>
       </c>
       <c r="F5" t="n">
-        <v>5.629265264291993</v>
+        <v>6.429262791106772</v>
       </c>
       <c r="G5" t="n">
-        <v>291008608</v>
+        <v>25888442</v>
       </c>
       <c r="H5" t="n">
-        <v>23.26677501847128</v>
+        <v>22.75297596462713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>img79_4.jpg</t>
+          <t>img33_4.jpg</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>387.0887437393504</v>
+        <v>431.0652613630665</v>
       </c>
       <c r="D6" t="n">
-        <v>12399.61316933461</v>
+        <v>11754.48964106852</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2307768888173385</v>
+        <v>-1.239010740538723</v>
       </c>
       <c r="F6" t="n">
-        <v>5.086014035841571</v>
+        <v>6.315096680575559</v>
       </c>
       <c r="G6" t="n">
-        <v>566940162</v>
+        <v>496438799</v>
       </c>
       <c r="H6" t="n">
-        <v>23.23621115866982</v>
+        <v>23.30676359791653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>img170_2.jpg</t>
+          <t>img128_2.jpg</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>406.1157885674932</v>
+        <v>266.8956631049654</v>
       </c>
       <c r="D7" t="n">
-        <v>9979.702111959719</v>
+        <v>6594.137161579453</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1089388032338045</v>
+        <v>0.2805178782184831</v>
       </c>
       <c r="F7" t="n">
-        <v>7.234972758766389</v>
+        <v>6.766733592690224</v>
       </c>
       <c r="G7" t="n">
-        <v>688965708</v>
+        <v>849078</v>
       </c>
       <c r="H7" t="n">
-        <v>23.13127586700006</v>
+        <v>21.92076629447292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>img48_4.jpg</t>
+          <t>img260_3.jpg</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>517.4835830542335</v>
+        <v>427.1309968309749</v>
       </c>
       <c r="D8" t="n">
-        <v>11460.82606236026</v>
+        <v>6405.769137384799</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.354061029147493</v>
+        <v>-0.7833861478864101</v>
       </c>
       <c r="F8" t="n">
-        <v>8.06327862723702</v>
+        <v>7.489138719696114</v>
       </c>
       <c r="G8" t="n">
-        <v>2243801912</v>
+        <v>21139915</v>
       </c>
       <c r="H8" t="n">
-        <v>22.89590584960256</v>
+        <v>22.24172582459815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;25_1.jpg</t>
+          <t>img10_2.jpg</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>269.0635615266998</v>
+        <v>356.3143485617597</v>
       </c>
       <c r="D9" t="n">
-        <v>9380.677790511023</v>
+        <v>8277.478248886588</v>
       </c>
       <c r="E9" t="n">
-        <v>1.44499869257546</v>
+        <v>1.225211793954451</v>
       </c>
       <c r="F9" t="n">
-        <v>7.117397924959578</v>
+        <v>7.43998283710701</v>
       </c>
       <c r="G9" t="n">
-        <v>32615952612</v>
+        <v>2869080002</v>
       </c>
       <c r="H9" t="n">
-        <v>22.82028832430842</v>
+        <v>22.47183899133711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>img237_2.jpg</t>
+          <t>img156_3.jpg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>217.2465437788018</v>
+        <v>341.4079149353415</v>
       </c>
       <c r="D10" t="n">
-        <v>5779.362518722241</v>
+        <v>6766.509155552596</v>
       </c>
       <c r="E10" t="n">
-        <v>2.122573359401504</v>
+        <v>1.630937325984539</v>
       </c>
       <c r="F10" t="n">
-        <v>7.959339836566451</v>
+        <v>7.986755947412585</v>
       </c>
       <c r="G10" t="n">
-        <v>2238820</v>
+        <v>1298296052</v>
       </c>
       <c r="H10" t="n">
-        <v>21.54460885522779</v>
+        <v>22.04313346874959</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>img47_3.jpg</t>
+          <t>img154_3.jpg</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>547.5615951566201</v>
+        <v>322.5714534004007</v>
       </c>
       <c r="D11" t="n">
-        <v>9650.871919677425</v>
+        <v>13205.82356465419</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.949400360961125</v>
+        <v>1.226535176809181</v>
       </c>
       <c r="F11" t="n">
-        <v>7.740733042535448</v>
+        <v>5.803088676020828</v>
       </c>
       <c r="G11" t="n">
-        <v>429048472</v>
+        <v>628010950</v>
       </c>
       <c r="H11" t="n">
-        <v>22.52651714117551</v>
+        <v>23.07323897510656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>img273_2.jpg</t>
+          <t>img126_1.jpg</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>406.9885116598079</v>
+        <v>268.1969052224371</v>
       </c>
       <c r="D12" t="n">
-        <v>6265.443043990302</v>
+        <v>5942.917950233642</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5467281060010327</v>
+        <v>2.671624861049375</v>
       </c>
       <c r="F12" t="n">
-        <v>7.9303149114987</v>
+        <v>13.08007764306273</v>
       </c>
       <c r="G12" t="n">
-        <v>16813644</v>
+        <v>154993</v>
       </c>
       <c r="H12" t="n">
-        <v>22.35268210818808</v>
+        <v>21.70878649302315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>img158_3.jpg</t>
+          <t>img275_2.jpg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>254.2895915567873</v>
+        <v>268.6865466366592</v>
       </c>
       <c r="D13" t="n">
-        <v>8032.388848917371</v>
+        <v>8257.630204883366</v>
       </c>
       <c r="E13" t="n">
-        <v>2.644465119590981</v>
+        <v>1.941392778477027</v>
       </c>
       <c r="F13" t="n">
-        <v>8.211925459333781</v>
+        <v>8.762488601726035</v>
       </c>
       <c r="G13" t="n">
-        <v>131657656</v>
+        <v>4984484</v>
       </c>
       <c r="H13" t="n">
-        <v>21.74762005390545</v>
+        <v>22.50256358741458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>img90_4.jpg</t>
+          <t>img291_3.jpg</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>480.7123930217248</v>
+        <v>254.6853448275862</v>
       </c>
       <c r="D14" t="n">
-        <v>10778.70126113586</v>
+        <v>5106.123479994055</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.757425399579819</v>
+        <v>0.3417902054738448</v>
       </c>
       <c r="F14" t="n">
-        <v>6.530398109065917</v>
+        <v>6.196022203064037</v>
       </c>
       <c r="G14" t="n">
-        <v>390670870</v>
+        <v>3121410</v>
       </c>
       <c r="H14" t="n">
-        <v>22.76090638907807</v>
+        <v>21.47428798666123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>img80_4.jpg</t>
+          <t>img59_2.jpg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>474.2452681329314</v>
+        <v>356.3572217018999</v>
       </c>
       <c r="D15" t="n">
-        <v>14508.5448735355</v>
+        <v>10015.68135127468</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.457286983609575</v>
+        <v>-0.01319014185740119</v>
       </c>
       <c r="F15" t="n">
-        <v>6.215563778461759</v>
+        <v>6.551219256341445</v>
       </c>
       <c r="G15" t="n">
-        <v>1186109552</v>
+        <v>231038420</v>
       </c>
       <c r="H15" t="n">
-        <v>23.17971664300499</v>
+        <v>23.04516996108021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;24_2.jpg</t>
+          <t>img112_2.jpg</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>321.4854495073891</v>
+        <v>304.7146412146412</v>
       </c>
       <c r="D16" t="n">
-        <v>11029.28494434966</v>
+        <v>7019.348343664299</v>
       </c>
       <c r="E16" t="n">
-        <v>1.372621181096064</v>
+        <v>2.654179774493197</v>
       </c>
       <c r="F16" t="n">
-        <v>7.715246171620853</v>
+        <v>9.32389421091785</v>
       </c>
       <c r="G16" t="n">
-        <v>24968730422</v>
+        <v>444997198</v>
       </c>
       <c r="H16" t="n">
-        <v>23.3233935295087</v>
+        <v>21.52094556651834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;75_2.jpg</t>
+          <t>img21_4.jpg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>258.9926229331261</v>
+        <v>340.1585216829493</v>
       </c>
       <c r="D17" t="n">
-        <v>10476.29986529209</v>
+        <v>11968.65380197538</v>
       </c>
       <c r="E17" t="n">
-        <v>1.738272188955489</v>
+        <v>-0.05144322981920382</v>
       </c>
       <c r="F17" t="n">
-        <v>7.654919000016074</v>
+        <v>5.05379792664684</v>
       </c>
       <c r="G17" t="n">
-        <v>28909528008</v>
+        <v>19579405419</v>
       </c>
       <c r="H17" t="n">
-        <v>22.91988266631563</v>
+        <v>23.01153408154369</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>img53_2.jpg</t>
+          <t>img247_4.jpg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>352.2074420576168</v>
+        <v>312.3611787439614</v>
       </c>
       <c r="D18" t="n">
-        <v>9204.011008391437</v>
+        <v>10576.97116562776</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8129801157132732</v>
+        <v>1.894930715568977</v>
       </c>
       <c r="F18" t="n">
-        <v>7.315846219748902</v>
+        <v>6.879198846343979</v>
       </c>
       <c r="G18" t="n">
-        <v>76439271</v>
+        <v>49716966</v>
       </c>
       <c r="H18" t="n">
-        <v>22.81575312528178</v>
+        <v>22.75613724443853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>img77_3.jpg</t>
+          <t>img12_2.jpg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>526.970205965909</v>
+        <v>341.1919675831827</v>
       </c>
       <c r="D19" t="n">
-        <v>14148.36617526346</v>
+        <v>10983.09186369676</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.308132142620098</v>
+        <v>0.05220096962171245</v>
       </c>
       <c r="F19" t="n">
-        <v>6.429262791106772</v>
+        <v>6.206205768712245</v>
       </c>
       <c r="G19" t="n">
-        <v>25888442</v>
+        <v>21188458628</v>
       </c>
       <c r="H19" t="n">
-        <v>22.75297596462713</v>
+        <v>23.11707705208603</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>img239_3.jpg</t>
+          <t>img136_3.jpg</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>299.9648804961327</v>
+        <v>437.3411520823767</v>
       </c>
       <c r="D20" t="n">
-        <v>6690.254533389441</v>
+        <v>10104.41899688797</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7251731901808283</v>
+        <v>-0.5338608928916057</v>
       </c>
       <c r="F20" t="n">
-        <v>6.253020630218687</v>
+        <v>6.521339251735077</v>
       </c>
       <c r="G20" t="n">
-        <v>15288674</v>
+        <v>5846228444</v>
       </c>
       <c r="H20" t="n">
-        <v>22.32240072917769</v>
+        <v>23.17345279675767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>img98_3.jpg</t>
+          <t>img152_3.jpg</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>346.6452721661055</v>
+        <v>482.0168134567012</v>
       </c>
       <c r="D21" t="n">
-        <v>8239.899359510015</v>
+        <v>8921.036664612664</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9640340159606401</v>
+        <v>-0.8911945017470886</v>
       </c>
       <c r="F21" t="n">
-        <v>5.852893620910564</v>
+        <v>7.45641273223461</v>
       </c>
       <c r="G21" t="n">
-        <v>1023207246</v>
+        <v>376794289</v>
       </c>
       <c r="H21" t="n">
-        <v>22.33312538807762</v>
+        <v>22.4351869933107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>img145_2.jpg</t>
+          <t>img141_2.jpg</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>360.1677531365676</v>
+        <v>318.2955257858331</v>
       </c>
       <c r="D22" t="n">
-        <v>13319.79951205964</v>
+        <v>13203.82180079195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9503709859801843</v>
+        <v>1.344692945954846</v>
       </c>
       <c r="F22" t="n">
-        <v>5.546893687977059</v>
+        <v>6.009833135916419</v>
       </c>
       <c r="G22" t="n">
-        <v>242985554</v>
+        <v>898825564</v>
       </c>
       <c r="H22" t="n">
-        <v>23.14141840972997</v>
+        <v>23.10289599857168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>img132_3.jpg</t>
+          <t>img60_2.jpg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>253.5448684210526</v>
+        <v>424.7233044419543</v>
       </c>
       <c r="D23" t="n">
-        <v>6033.964585907202</v>
+        <v>14844.74220918967</v>
       </c>
       <c r="E23" t="n">
-        <v>3.182936741135888</v>
+        <v>-0.7462863523981748</v>
       </c>
       <c r="F23" t="n">
-        <v>14.09822753232611</v>
+        <v>5.462560177140072</v>
       </c>
       <c r="G23" t="n">
-        <v>1557450</v>
+        <v>7593451593</v>
       </c>
       <c r="H23" t="n">
-        <v>21.23495366603292</v>
+        <v>23.19958576100053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>img155_3.jpg</t>
+          <t>img69_3.jpg</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>467.3969546295518</v>
+        <v>413.3936309331611</v>
       </c>
       <c r="D24" t="n">
-        <v>11856.25381133652</v>
+        <v>9692.021252545701</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3915177537916516</v>
+        <v>-1.023402429370998</v>
       </c>
       <c r="F24" t="n">
-        <v>5.380566663475912</v>
+        <v>6.587323334173513</v>
       </c>
       <c r="G24" t="n">
-        <v>2740491596</v>
+        <v>256896402</v>
       </c>
       <c r="H24" t="n">
-        <v>22.67317103947402</v>
+        <v>22.96376371978785</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>img146_2.jpg</t>
+          <t>img294_2.jpg</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9659093689594</v>
+        <v>320.7321190755973</v>
       </c>
       <c r="D25" t="n">
-        <v>10915.8179041711</v>
+        <v>6807.293215663423</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4026635110429325</v>
+        <v>0.6633315373828372</v>
       </c>
       <c r="F25" t="n">
-        <v>5.720037563923189</v>
+        <v>7.336483028197353</v>
       </c>
       <c r="G25" t="n">
-        <v>471882136</v>
+        <v>12163428</v>
       </c>
       <c r="H25" t="n">
-        <v>22.83229306995651</v>
+        <v>22.42467741026521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>img30_4.jpg</t>
+          <t>img248_2.jpg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>515.70306100728</v>
+        <v>455.8345742404792</v>
       </c>
       <c r="D26" t="n">
-        <v>9437.039065274314</v>
+        <v>10590.93057889043</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.285757072222226</v>
+        <v>-0.6158125326231877</v>
       </c>
       <c r="F26" t="n">
-        <v>8.297106068470505</v>
+        <v>7.071966125326666</v>
       </c>
       <c r="G26" t="n">
-        <v>268004449</v>
+        <v>9012514</v>
       </c>
       <c r="H26" t="n">
-        <v>22.72206404895974</v>
+        <v>23.09447755650186</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>img277_1.jpg</t>
+          <t>2023-09-13&amp;36_2.jpg</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>391.7498190765668</v>
+        <v>305.029851853765</v>
       </c>
       <c r="D27" t="n">
-        <v>7588.210759543021</v>
+        <v>11757.42588125151</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.713810597334863</v>
+        <v>0.658368323013286</v>
       </c>
       <c r="F27" t="n">
-        <v>7.531136365636444</v>
+        <v>6.431853796044114</v>
       </c>
       <c r="G27" t="n">
-        <v>3779620</v>
+        <v>85933647401</v>
       </c>
       <c r="H27" t="n">
-        <v>22.45741106426664</v>
+        <v>23.41123563613526</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>img78_4.jpg</t>
+          <t>img228_2.jpg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>483.6331035303392</v>
+        <v>437.5936739659368</v>
       </c>
       <c r="D28" t="n">
-        <v>14096.19326590075</v>
+        <v>8630.46050139667</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.175579443091144</v>
+        <v>-0.7789586477293829</v>
       </c>
       <c r="F28" t="n">
-        <v>5.747829574467537</v>
+        <v>7.230496567339484</v>
       </c>
       <c r="G28" t="n">
-        <v>296971711</v>
+        <v>13242209</v>
       </c>
       <c r="H28" t="n">
-        <v>23.19827202814898</v>
+        <v>22.84798988893355</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>img114_3.jpg</t>
+          <t>2023-09-13&amp;31_1.jpg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>449.313220976375</v>
+        <v>280.7681480474118</v>
       </c>
       <c r="D29" t="n">
-        <v>8731.624338800326</v>
+        <v>5052.540798237049</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3676280611575821</v>
+        <v>-0.5291848192962619</v>
       </c>
       <c r="F29" t="n">
-        <v>5.370116772657484</v>
+        <v>8.899981968220008</v>
       </c>
       <c r="G29" t="n">
-        <v>628797678</v>
+        <v>29190709748</v>
       </c>
       <c r="H29" t="n">
-        <v>22.14491942703263</v>
+        <v>21.66192292937735</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>img283_2.jpg</t>
+          <t>img168_3.jpg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>418.3605768055726</v>
+        <v>215.2797926136882</v>
       </c>
       <c r="D30" t="n">
-        <v>8619.545581193393</v>
+        <v>5749.400130641673</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06887745176873859</v>
+        <v>2.229600814183608</v>
       </c>
       <c r="F30" t="n">
-        <v>6.293324682667271</v>
+        <v>8.532304316043053</v>
       </c>
       <c r="G30" t="n">
-        <v>27915107</v>
+        <v>1754157349</v>
       </c>
       <c r="H30" t="n">
-        <v>22.88779279678684</v>
+        <v>21.74474442697959</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>img166_3.jpg</t>
+          <t>img1_4.jpg</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>379.62744269283</v>
+        <v>410.9815804639558</v>
       </c>
       <c r="D31" t="n">
-        <v>8663.467216611229</v>
+        <v>12072.08034229458</v>
       </c>
       <c r="E31" t="n">
-        <v>0.27717925552029</v>
+        <v>-0.9024233614965309</v>
       </c>
       <c r="F31" t="n">
-        <v>5.69564923006695</v>
+        <v>5.688662865359454</v>
       </c>
       <c r="G31" t="n">
-        <v>3635761230</v>
+        <v>6575976548</v>
       </c>
       <c r="H31" t="n">
-        <v>22.52713426498355</v>
+        <v>23.08504863056718</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>img36_3.jpg</t>
+          <t>img157_3.jpg</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>368.1868619185692</v>
+        <v>247.4964074155331</v>
       </c>
       <c r="D32" t="n">
-        <v>10208.7047190773</v>
+        <v>6214.535595834374</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2825612788519846</v>
+        <v>1.661922816296325</v>
       </c>
       <c r="F32" t="n">
-        <v>6.317405146432643</v>
+        <v>7.39207538390742</v>
       </c>
       <c r="G32" t="n">
-        <v>246336419</v>
+        <v>453101958</v>
       </c>
       <c r="H32" t="n">
-        <v>22.99397466921791</v>
+        <v>21.93949665055617</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>img51_3.jpg</t>
+          <t>img262_3.jpg</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>487.024586100922</v>
+        <v>453.2776279650437</v>
       </c>
       <c r="D33" t="n">
-        <v>9389.235568002379</v>
+        <v>7651.780987254695</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.8635394278459914</v>
+        <v>-1.284569850592871</v>
       </c>
       <c r="F33" t="n">
-        <v>6.819262019736361</v>
+        <v>7.443428693555374</v>
       </c>
       <c r="G33" t="n">
-        <v>252134054</v>
+        <v>34249190</v>
       </c>
       <c r="H33" t="n">
-        <v>22.9279997877733</v>
+        <v>22.39786244177545</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>img258_3.jpg</t>
+          <t>img32_3.jpg</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>212.4757942949907</v>
+        <v>393.9663264717753</v>
       </c>
       <c r="D34" t="n">
-        <v>3443.362077554809</v>
+        <v>9922.487106552057</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08260751421596471</v>
+        <v>-0.8887333559357387</v>
       </c>
       <c r="F34" t="n">
-        <v>8.099794426708796</v>
+        <v>6.682149036426926</v>
       </c>
       <c r="G34" t="n">
-        <v>31036472</v>
+        <v>422334735</v>
       </c>
       <c r="H34" t="n">
-        <v>20.99702896208289</v>
+        <v>22.95492764271046</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>img22_3.jpg</t>
+          <t>img35_3.jpg</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>384.0752792045149</v>
+        <v>467.0286525206109</v>
       </c>
       <c r="D35" t="n">
-        <v>11280.7925840298</v>
+        <v>15407.97928433965</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2025024643779031</v>
+        <v>-1.67885342378103</v>
       </c>
       <c r="F35" t="n">
-        <v>5.68994270646828</v>
+        <v>6.208937150125596</v>
       </c>
       <c r="G35" t="n">
-        <v>16273672394</v>
+        <v>264426498</v>
       </c>
       <c r="H35" t="n">
-        <v>23.09126645222905</v>
+        <v>23.00954172935622</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>img279_2.jpg</t>
+          <t>2023-09-13&amp;21_3.jpg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>403.915294117647</v>
+        <v>336.7901935564827</v>
       </c>
       <c r="D36" t="n">
-        <v>5722.595085397925</v>
+        <v>14411.6658920028</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.6513031285059819</v>
+        <v>-0.3479552419723463</v>
       </c>
       <c r="F36" t="n">
-        <v>6.830259954813347</v>
+        <v>5.056595740967087</v>
       </c>
       <c r="G36" t="n">
-        <v>1552374</v>
+        <v>40928384146</v>
       </c>
       <c r="H36" t="n">
-        <v>21.94746913532182</v>
+        <v>23.2083600375407</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>img295_3.jpg</t>
+          <t>2023-09-13&amp;1106_3.jpg</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>467.6655314243798</v>
+        <v>396.7264994037106</v>
       </c>
       <c r="D37" t="n">
-        <v>10484.30870657374</v>
+        <v>7836.374289439174</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.8703394994280276</v>
+        <v>-0.127132322830146</v>
       </c>
       <c r="F37" t="n">
-        <v>6.219352641189223</v>
+        <v>7.568457588515779</v>
       </c>
       <c r="G37" t="n">
-        <v>23819783</v>
+        <v>24023646854</v>
       </c>
       <c r="H37" t="n">
-        <v>23.05318645417079</v>
+        <v>22.87511311134059</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;m46_1.jpg</t>
+          <t>img132_3.jpg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>321.806065437345</v>
+        <v>238.7665789473684</v>
       </c>
       <c r="D38" t="n">
-        <v>12685.85575379243</v>
+        <v>6033.964585907202</v>
       </c>
       <c r="E38" t="n">
-        <v>1.677579061163913</v>
+        <v>3.182936741135888</v>
       </c>
       <c r="F38" t="n">
-        <v>6.274430814406394</v>
+        <v>14.09822753232611</v>
       </c>
       <c r="G38" t="n">
-        <v>61569952580</v>
+        <v>1557450</v>
       </c>
       <c r="H38" t="n">
-        <v>22.86175227087222</v>
+        <v>21.23495366603292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>img154_3.jpg</t>
+          <t>img67_1.jpg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>356.0942829100724</v>
+        <v>324.1355087719298</v>
       </c>
       <c r="D39" t="n">
-        <v>13205.82356465419</v>
+        <v>8560.99656548442</v>
       </c>
       <c r="E39" t="n">
-        <v>1.226535176809181</v>
+        <v>0.4486325579787148</v>
       </c>
       <c r="F39" t="n">
-        <v>5.803088676020828</v>
+        <v>7.116805023406007</v>
       </c>
       <c r="G39" t="n">
-        <v>628010950</v>
+        <v>85362536</v>
       </c>
       <c r="H39" t="n">
-        <v>23.07323897510656</v>
+        <v>22.88069081559519</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>img234_1.jpg</t>
+          <t>img107_3.jpg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>327.6568100358423</v>
+        <v>507.6917352134743</v>
       </c>
       <c r="D40" t="n">
-        <v>3260.660983866886</v>
+        <v>12057.1870561388</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7171779990908341</v>
+        <v>-0.311932799536231</v>
       </c>
       <c r="F40" t="n">
-        <v>9.498219625078519</v>
+        <v>5.188530194248821</v>
       </c>
       <c r="G40" t="n">
-        <v>20276568</v>
+        <v>111418832</v>
       </c>
       <c r="H40" t="n">
-        <v>20.79103065633651</v>
+        <v>21.87145176718151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>img3_1.jpg</t>
+          <t>img226_1.jpg</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>351.4369641772921</v>
+        <v>299.5861716171617</v>
       </c>
       <c r="D41" t="n">
-        <v>10404.20869609298</v>
+        <v>8864.941166193945</v>
       </c>
       <c r="E41" t="n">
-        <v>0.613328730438689</v>
+        <v>1.074500314129967</v>
       </c>
       <c r="F41" t="n">
-        <v>7.851277867680656</v>
+        <v>6.869473132554829</v>
       </c>
       <c r="G41" t="n">
-        <v>8421735294</v>
+        <v>15801208</v>
       </c>
       <c r="H41" t="n">
-        <v>22.40957346082664</v>
+        <v>22.76610648596779</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>img67_1.jpg</t>
+          <t>img8_5.jpg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>364.0064421052631</v>
+        <v>414.9438871348565</v>
       </c>
       <c r="D42" t="n">
-        <v>8560.99656548442</v>
+        <v>12365.59765094999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4486325579787148</v>
+        <v>-1.419375352878467</v>
       </c>
       <c r="F42" t="n">
-        <v>7.116805023406007</v>
+        <v>6.028866486342968</v>
       </c>
       <c r="G42" t="n">
-        <v>85362536</v>
+        <v>10162439238</v>
       </c>
       <c r="H42" t="n">
-        <v>22.88069081559519</v>
+        <v>23.1979986828401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>img37_4.jpg</t>
+          <t>img73_3.jpg</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>481.0579474643569</v>
+        <v>435.4633990427258</v>
       </c>
       <c r="D43" t="n">
-        <v>14430.50098631557</v>
+        <v>11463.41592622595</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.97472571799883</v>
+        <v>-1.696081387810028</v>
       </c>
       <c r="F43" t="n">
-        <v>5.878262730348333</v>
+        <v>6.757751713825924</v>
       </c>
       <c r="G43" t="n">
-        <v>444900210</v>
+        <v>319546377</v>
       </c>
       <c r="H43" t="n">
-        <v>23.2503146706724</v>
+        <v>22.6442277223348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>img54_2.jpg</t>
+          <t>img162_4.jpg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>338.8070078250982</v>
+        <v>230.8406733540655</v>
       </c>
       <c r="D44" t="n">
-        <v>8215.343069728049</v>
+        <v>7865.707503230579</v>
       </c>
       <c r="E44" t="n">
-        <v>1.017537283092644</v>
+        <v>2.810197831641974</v>
       </c>
       <c r="F44" t="n">
-        <v>8.75727771647378</v>
+        <v>8.9996088142681</v>
       </c>
       <c r="G44" t="n">
-        <v>3695307005</v>
+        <v>994410116</v>
       </c>
       <c r="H44" t="n">
-        <v>22.55221456799676</v>
+        <v>22.1406914723166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>img107_3.jpg</t>
+          <t>img48_4.jpg</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>513.2707990599295</v>
+        <v>492.5537134966801</v>
       </c>
       <c r="D45" t="n">
-        <v>12057.1870561388</v>
+        <v>11460.82606236026</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.311932799536231</v>
+        <v>-2.354061029147493</v>
       </c>
       <c r="F45" t="n">
-        <v>5.188530194248821</v>
+        <v>8.06327862723702</v>
       </c>
       <c r="G45" t="n">
-        <v>111418832</v>
+        <v>2243801912</v>
       </c>
       <c r="H45" t="n">
-        <v>21.87145176718151</v>
+        <v>22.89590584960256</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>img138_4.jpg</t>
+          <t>img134_1.jpg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>483.6903698603187</v>
+        <v>281.5317441704637</v>
       </c>
       <c r="D46" t="n">
-        <v>14322.34824027012</v>
+        <v>7227.223740447031</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.7461809773053705</v>
+        <v>0.8745884491062442</v>
       </c>
       <c r="F46" t="n">
-        <v>5.572418502041351</v>
+        <v>7.346607344023422</v>
       </c>
       <c r="G46" t="n">
-        <v>3521834150</v>
+        <v>67874490</v>
       </c>
       <c r="H46" t="n">
-        <v>23.05284153516341</v>
+        <v>22.38674985090892</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>img74_4.jpg</t>
+          <t>img24_3.jpg</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>499.128199513382</v>
+        <v>439.7925861991737</v>
       </c>
       <c r="D47" t="n">
-        <v>16724.30930983739</v>
+        <v>15315.11075515258</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.695522711189732</v>
+        <v>-1.018513219733721</v>
       </c>
       <c r="F47" t="n">
-        <v>5.69927894993517</v>
+        <v>5.386467486540742</v>
       </c>
       <c r="G47" t="n">
-        <v>3413024798</v>
+        <v>5670909638</v>
       </c>
       <c r="H47" t="n">
-        <v>22.4033128088744</v>
+        <v>23.17235575789159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>img142_2.jpg</t>
+          <t>img94_2.jpg</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>429.0166326745904</v>
+        <v>414.5145045045045</v>
       </c>
       <c r="D48" t="n">
-        <v>12537.81283596288</v>
+        <v>8585.9342853421</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.09550680044009688</v>
+        <v>-0.7252254013372237</v>
       </c>
       <c r="F48" t="n">
-        <v>5.797292163197209</v>
+        <v>6.586144747650692</v>
       </c>
       <c r="G48" t="n">
-        <v>1401841600</v>
+        <v>2021538</v>
       </c>
       <c r="H48" t="n">
-        <v>23.36860425411988</v>
+        <v>22.9239035934855</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>img160_4.jpg</t>
+          <t>img102_4.jpg</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>394.9605931247179</v>
+        <v>301.0515224358974</v>
       </c>
       <c r="D49" t="n">
-        <v>12278.00612328217</v>
+        <v>8560.738419703473</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.05129741717364175</v>
+        <v>3.237610779103825</v>
       </c>
       <c r="F49" t="n">
-        <v>5.349507357614574</v>
+        <v>8.485373346896363</v>
       </c>
       <c r="G49" t="n">
-        <v>709756030</v>
+        <v>245099194</v>
       </c>
       <c r="H49" t="n">
-        <v>23.1125408438121</v>
+        <v>21.19504436965475</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>img262_3.jpg</t>
+          <t>img164_4.jpg</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>476.0395505617977</v>
+        <v>284.7751243781095</v>
       </c>
       <c r="D50" t="n">
-        <v>7651.780987254695</v>
+        <v>6319.148700232608</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.284569850592871</v>
+        <v>1.644466209407038</v>
       </c>
       <c r="F50" t="n">
-        <v>7.443428693555374</v>
+        <v>6.723926041885463</v>
       </c>
       <c r="G50" t="n">
-        <v>34249190</v>
+        <v>1271447838</v>
       </c>
       <c r="H50" t="n">
-        <v>22.39786244177545</v>
+        <v>21.86079210641087</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>img9_2.jpg</t>
+          <t>img16_2.jpg</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>365.6242429716608</v>
+        <v>279.7784135642368</v>
       </c>
       <c r="D51" t="n">
-        <v>9713.290223560951</v>
+        <v>9565.962051518612</v>
       </c>
       <c r="E51" t="n">
-        <v>1.192018792794044</v>
+        <v>1.2394338675324</v>
       </c>
       <c r="F51" t="n">
-        <v>6.163506513782943</v>
+        <v>7.792947286237974</v>
       </c>
       <c r="G51" t="n">
-        <v>7976275627</v>
+        <v>8245896552</v>
       </c>
       <c r="H51" t="n">
-        <v>22.61457821388068</v>
+        <v>22.69403676450776</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>img150_2.jpg</t>
+          <t>img281_2.jpg</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>378.2933985886638</v>
+        <v>282.1841707317073</v>
       </c>
       <c r="D52" t="n">
-        <v>10395.31571605349</v>
+        <v>6544.061915786437</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4566019928715167</v>
+        <v>0.6506239981571668</v>
       </c>
       <c r="F52" t="n">
-        <v>6.092325589007104</v>
+        <v>7.094965917323078</v>
       </c>
       <c r="G52" t="n">
-        <v>278456178</v>
+        <v>32682304</v>
       </c>
       <c r="H52" t="n">
-        <v>22.98732096108617</v>
+        <v>22.28046715426691</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>img68_3.jpg</t>
+          <t>img4_4.jpg</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>376.0876120492515</v>
+        <v>268.0298863390009</v>
       </c>
       <c r="D53" t="n">
-        <v>7619.756987072976</v>
+        <v>9916.568430963105</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5583011548708008</v>
+        <v>1.70684633820397</v>
       </c>
       <c r="F53" t="n">
-        <v>7.571548514526836</v>
+        <v>6.973004083413522</v>
       </c>
       <c r="G53" t="n">
-        <v>1501950363</v>
+        <v>2573965322</v>
       </c>
       <c r="H53" t="n">
-        <v>22.72323682151764</v>
+        <v>22.84043298908745</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>img278_1.jpg</t>
+          <t>img150_2.jpg</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>368.6052941176471</v>
+        <v>337.2733818954397</v>
       </c>
       <c r="D54" t="n">
-        <v>6042.889375124951</v>
+        <v>10395.31571605349</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1135466034436123</v>
+        <v>0.4566019928715167</v>
       </c>
       <c r="F54" t="n">
-        <v>8.909990897312673</v>
+        <v>6.092325589007104</v>
       </c>
       <c r="G54" t="n">
-        <v>4655454</v>
+        <v>278456178</v>
       </c>
       <c r="H54" t="n">
-        <v>22.38505468571991</v>
+        <v>22.98732096108617</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>img100_3.jpg</t>
+          <t>img22_3.jpg</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>355.9528053742076</v>
+        <v>353.012718766348</v>
       </c>
       <c r="D55" t="n">
-        <v>6392.288054105268</v>
+        <v>11280.7925840298</v>
       </c>
       <c r="E55" t="n">
-        <v>0.622529991088689</v>
+        <v>0.2025024643779031</v>
       </c>
       <c r="F55" t="n">
-        <v>5.883725636512311</v>
+        <v>5.68994270646828</v>
       </c>
       <c r="G55" t="n">
-        <v>248219622</v>
+        <v>16273672394</v>
       </c>
       <c r="H55" t="n">
-        <v>21.82117883944082</v>
+        <v>23.09126645222905</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;997_1.jpg</t>
+          <t>2023-09-13&amp;37_1.jpg</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>374.8718875514779</v>
+        <v>310.4250372720678</v>
       </c>
       <c r="D56" t="n">
-        <v>14266.55550800608</v>
+        <v>12137.46572078259</v>
       </c>
       <c r="E56" t="n">
-        <v>1.442848251053016</v>
+        <v>1.451341026306434</v>
       </c>
       <c r="F56" t="n">
-        <v>6.602525201435119</v>
+        <v>6.729363380991571</v>
       </c>
       <c r="G56" t="n">
-        <v>39552693063</v>
+        <v>73066216499</v>
       </c>
       <c r="H56" t="n">
-        <v>23.35944520953444</v>
+        <v>23.34051329685847</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>img38_3.jpg</t>
+          <t>2023-09-13&amp;26_3.jpg</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>436.8322769459626</v>
+        <v>337.3965561867082</v>
       </c>
       <c r="D57" t="n">
-        <v>10548.46640740705</v>
+        <v>8270.353741567011</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4974833829571672</v>
+        <v>0.4413637738030775</v>
       </c>
       <c r="F57" t="n">
-        <v>6.586797677469831</v>
+        <v>6.823527703740935</v>
       </c>
       <c r="G57" t="n">
-        <v>1626820726</v>
+        <v>74016787092</v>
       </c>
       <c r="H57" t="n">
-        <v>22.95948050044933</v>
+        <v>23.02852028790842</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>img135_3.jpg</t>
+          <t>img246_2.jpg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>258.1434795513813</v>
+        <v>421.4934671945701</v>
       </c>
       <c r="D58" t="n">
-        <v>1919.149399721593</v>
+        <v>13695.28591097819</v>
       </c>
       <c r="E58" t="n">
-        <v>1.922783854357881</v>
+        <v>-0.4889571324415529</v>
       </c>
       <c r="F58" t="n">
-        <v>9.413860671916733</v>
+        <v>5.190533855732146</v>
       </c>
       <c r="G58" t="n">
-        <v>1467683642</v>
+        <v>19444978</v>
       </c>
       <c r="H58" t="n">
-        <v>19.33005823898918</v>
+        <v>23.24266001674282</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>img247_4.jpg</t>
+          <t>img110_3.jpg</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>326.4728888888889</v>
+        <v>547.6976585706797</v>
       </c>
       <c r="D59" t="n">
-        <v>10576.97116562776</v>
+        <v>7999.187289699839</v>
       </c>
       <c r="E59" t="n">
-        <v>1.894930715568977</v>
+        <v>-1.977264901661614</v>
       </c>
       <c r="F59" t="n">
-        <v>6.879198846343979</v>
+        <v>7.727729877841862</v>
       </c>
       <c r="G59" t="n">
-        <v>49716966</v>
+        <v>1127116172</v>
       </c>
       <c r="H59" t="n">
-        <v>22.75613724443853</v>
+        <v>21.73837746197745</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>img14_4.jpg</t>
+          <t>img145_2.jpg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>431.3830501726832</v>
+        <v>326.1398679857176</v>
       </c>
       <c r="D60" t="n">
-        <v>11830.82278384718</v>
+        <v>13319.79951205964</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.167731746193071</v>
+        <v>0.9503709859801843</v>
       </c>
       <c r="F60" t="n">
-        <v>5.443256117494482</v>
+        <v>5.546893687977059</v>
       </c>
       <c r="G60" t="n">
-        <v>4966137013</v>
+        <v>242985554</v>
       </c>
       <c r="H60" t="n">
-        <v>22.64586468123234</v>
+        <v>23.14141840972997</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;29_1.jpg</t>
+          <t>2023-09-13&amp;27_1.jpg</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>226.5343121691435</v>
+        <v>193.3685055841383</v>
       </c>
       <c r="D61" t="n">
-        <v>12882.21529535971</v>
+        <v>10858.79437090987</v>
       </c>
       <c r="E61" t="n">
-        <v>2.50759215038085</v>
+        <v>2.885631540183569</v>
       </c>
       <c r="F61" t="n">
-        <v>7.358613141862353</v>
+        <v>7.848976934231579</v>
       </c>
       <c r="G61" t="n">
-        <v>122865789033</v>
+        <v>68884955229</v>
       </c>
       <c r="H61" t="n">
-        <v>22.47388903850755</v>
+        <v>21.33475536775537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>img6_3.jpg</t>
+          <t>2023-09-13&amp;75_2.jpg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>398.4124955097643</v>
+        <v>256.724610061613</v>
       </c>
       <c r="D62" t="n">
-        <v>11068.47501827711</v>
+        <v>10476.29986529209</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9706927377395147</v>
+        <v>1.738272188955489</v>
       </c>
       <c r="F62" t="n">
-        <v>6.209591078589487</v>
+        <v>7.654919000016074</v>
       </c>
       <c r="G62" t="n">
-        <v>3779701218</v>
+        <v>28909528008</v>
       </c>
       <c r="H62" t="n">
-        <v>23.04025389303714</v>
+        <v>22.91988266631563</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>img32_3.jpg</t>
+          <t>2023-09-13&amp;25_1.jpg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>435.8280061760429</v>
+        <v>264.4516489488902</v>
       </c>
       <c r="D63" t="n">
-        <v>9922.487106552057</v>
+        <v>9380.677790511023</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8887333559357387</v>
+        <v>1.44499869257546</v>
       </c>
       <c r="F63" t="n">
-        <v>6.682149036426926</v>
+        <v>7.117397924959578</v>
       </c>
       <c r="G63" t="n">
-        <v>422334735</v>
+        <v>32615952612</v>
       </c>
       <c r="H63" t="n">
-        <v>22.95492764271046</v>
+        <v>22.82028832430842</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>img169_3.jpg</t>
+          <t>img68_3.jpg</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>270.4389650726676</v>
+        <v>338.0323130840313</v>
       </c>
       <c r="D64" t="n">
-        <v>5661.580482102003</v>
+        <v>7619.756987072976</v>
       </c>
       <c r="E64" t="n">
-        <v>3.058053061366428</v>
+        <v>0.5583011548708008</v>
       </c>
       <c r="F64" t="n">
-        <v>10.59409993822782</v>
+        <v>7.571548514526836</v>
       </c>
       <c r="G64" t="n">
-        <v>114587908</v>
+        <v>1501950363</v>
       </c>
       <c r="H64" t="n">
-        <v>21.63586170916307</v>
+        <v>22.72323682151764</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>img228_2.jpg</t>
+          <t>img296_3.jpg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>456.4985292515524</v>
+        <v>498.6615981882885</v>
       </c>
       <c r="D65" t="n">
-        <v>8630.46050139667</v>
+        <v>7544.35728535114</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7789586477293829</v>
+        <v>-2.318667761629349</v>
       </c>
       <c r="F65" t="n">
-        <v>7.230496567339484</v>
+        <v>9.273443792006129</v>
       </c>
       <c r="G65" t="n">
-        <v>13242209</v>
+        <v>16133877</v>
       </c>
       <c r="H65" t="n">
-        <v>22.84798988893355</v>
+        <v>22.350186043721</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>img286_3.jpg</t>
+          <t>img82_4.jpg</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>348.3983682514101</v>
+        <v>488.969501863775</v>
       </c>
       <c r="D66" t="n">
-        <v>9709.726771886815</v>
+        <v>14686.03882803588</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.001718679404324214</v>
+        <v>-1.927784750018477</v>
       </c>
       <c r="F66" t="n">
-        <v>5.916989084027686</v>
+        <v>6.679229240180122</v>
       </c>
       <c r="G66" t="n">
-        <v>6346416</v>
+        <v>1198270738</v>
       </c>
       <c r="H66" t="n">
-        <v>22.92388092040216</v>
+        <v>22.71682143960221</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>img4_4.jpg</t>
+          <t>img274_3.jpg</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>283.5454385910579</v>
+        <v>390.5278241311761</v>
       </c>
       <c r="D67" t="n">
-        <v>9916.568430963105</v>
+        <v>4782.412437041934</v>
       </c>
       <c r="E67" t="n">
-        <v>1.70684633820397</v>
+        <v>-0.1506449607408022</v>
       </c>
       <c r="F67" t="n">
-        <v>6.973004083413522</v>
+        <v>7.73318690673366</v>
       </c>
       <c r="G67" t="n">
-        <v>2573965322</v>
+        <v>4428317</v>
       </c>
       <c r="H67" t="n">
-        <v>22.84043298908745</v>
+        <v>21.66309082043068</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>img269_3.jpg</t>
+          <t>img54_2.jpg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>220.4019222367846</v>
+        <v>286.3293964873405</v>
       </c>
       <c r="D68" t="n">
-        <v>2470.382739466494</v>
+        <v>8215.343069728049</v>
       </c>
       <c r="E68" t="n">
-        <v>1.947516527896746</v>
+        <v>1.017537283092644</v>
       </c>
       <c r="F68" t="n">
-        <v>6.8663967488962</v>
+        <v>8.75727771647378</v>
       </c>
       <c r="G68" t="n">
-        <v>8457860</v>
+        <v>3695307005</v>
       </c>
       <c r="H68" t="n">
-        <v>19.16787505084007</v>
+        <v>22.55221456799676</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>img151_2.jpg</t>
+          <t>img36_3.jpg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>405.8109765987025</v>
+        <v>317.6277706033804</v>
       </c>
       <c r="D69" t="n">
-        <v>10763.68845121357</v>
+        <v>10208.7047190773</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8276623272872841</v>
+        <v>0.2825612788519846</v>
       </c>
       <c r="F69" t="n">
-        <v>6.404821401744048</v>
+        <v>6.317405146432643</v>
       </c>
       <c r="G69" t="n">
-        <v>470425116</v>
+        <v>246336419</v>
       </c>
       <c r="H69" t="n">
-        <v>23.1358162468266</v>
+        <v>22.99397466921791</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>img92_5.jpg</t>
+          <t>img57_1.jpg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>480.1605949801373</v>
+        <v>349.3514476197171</v>
       </c>
       <c r="D70" t="n">
-        <v>12899.30681171093</v>
+        <v>8067.511643190965</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.609834338756576</v>
+        <v>0.2158832548640416</v>
       </c>
       <c r="F70" t="n">
-        <v>6.060468241874574</v>
+        <v>6.386960139988537</v>
       </c>
       <c r="G70" t="n">
-        <v>296537620</v>
+        <v>125570233</v>
       </c>
       <c r="H70" t="n">
-        <v>23.14351003922388</v>
+        <v>22.70011340121069</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>img230_2.jpg</t>
+          <t>img284_3.jpg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>513.4110146862483</v>
+        <v>334.7758735689007</v>
       </c>
       <c r="D71" t="n">
-        <v>9754.748797787348</v>
+        <v>10674.03813090926</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9278482314311481</v>
+        <v>1.735967713885179</v>
       </c>
       <c r="F71" t="n">
-        <v>8.267971581087227</v>
+        <v>6.756968571034617</v>
       </c>
       <c r="G71" t="n">
-        <v>4416922</v>
+        <v>286794585</v>
       </c>
       <c r="H71" t="n">
-        <v>22.66617952595017</v>
+        <v>22.79067632359221</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>img263_1.jpg</t>
+          <t>img277_1.jpg</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>458.8239245283019</v>
+        <v>378.4669995657837</v>
       </c>
       <c r="D72" t="n">
-        <v>7674.263585935208</v>
+        <v>7588.210759543021</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.611134993781342</v>
+        <v>-0.713810597334863</v>
       </c>
       <c r="F72" t="n">
-        <v>6.829096285331824</v>
+        <v>7.531136365636444</v>
       </c>
       <c r="G72" t="n">
-        <v>12308420</v>
+        <v>3779620</v>
       </c>
       <c r="H72" t="n">
-        <v>22.72999120181339</v>
+        <v>22.45741106426664</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>img251_1.jpg</t>
+          <t>img240_2.jpg</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>291.8962264150944</v>
+        <v>308.0013227513227</v>
       </c>
       <c r="D73" t="n">
-        <v>7414.416405647038</v>
+        <v>8250.211840055181</v>
       </c>
       <c r="E73" t="n">
-        <v>1.855476724494797</v>
+        <v>1.237318542955657</v>
       </c>
       <c r="F73" t="n">
-        <v>9.116401480613955</v>
+        <v>8.393199343663444</v>
       </c>
       <c r="G73" t="n">
-        <v>3583166</v>
+        <v>2476878</v>
       </c>
       <c r="H73" t="n">
-        <v>22.45814327619977</v>
+        <v>22.45121260297151</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>img84_4.jpg</t>
+          <t>img249_3.jpg</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>421.6177469295671</v>
+        <v>191.5851650485437</v>
       </c>
       <c r="D74" t="n">
-        <v>14004.97273464107</v>
+        <v>6734.684585480252</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.006891551589543771</v>
+        <v>1.806334852808672</v>
       </c>
       <c r="F74" t="n">
-        <v>5.273034781231903</v>
+        <v>7.133155615224484</v>
       </c>
       <c r="G74" t="n">
-        <v>989409081</v>
+        <v>4490093</v>
       </c>
       <c r="H74" t="n">
-        <v>23.44840920693629</v>
+        <v>21.36109079068399</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>img113_4.jpg</t>
+          <t>img232_2.jpg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>376.8087716568109</v>
+        <v>268.1012303043385</v>
       </c>
       <c r="D75" t="n">
-        <v>10354.16169791306</v>
+        <v>6892.69266743679</v>
       </c>
       <c r="E75" t="n">
-        <v>1.79713174502443</v>
+        <v>1.201483285235981</v>
       </c>
       <c r="F75" t="n">
-        <v>6.045088498337115</v>
+        <v>8.233219501410415</v>
       </c>
       <c r="G75" t="n">
-        <v>529587954</v>
+        <v>4213431</v>
       </c>
       <c r="H75" t="n">
-        <v>22.17864921282898</v>
+        <v>21.99783582126049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>img131_2.jpg</t>
+          <t>img71_2.jpg</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>394.8347847121432</v>
+        <v>300.4340977083065</v>
       </c>
       <c r="D76" t="n">
-        <v>20889.65373140809</v>
+        <v>7368.874445968086</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3332566563149907</v>
+        <v>1.666224948152909</v>
       </c>
       <c r="F76" t="n">
-        <v>4.332423162354599</v>
+        <v>7.60297299593298</v>
       </c>
       <c r="G76" t="n">
-        <v>293380</v>
+        <v>411343174</v>
       </c>
       <c r="H76" t="n">
-        <v>23.19801258404262</v>
+        <v>22.10813163418441</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>img40_1.jpg</t>
+          <t>img51_3.jpg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>323.4314985240493</v>
+        <v>429.3721208816629</v>
       </c>
       <c r="D77" t="n">
-        <v>7870.849897871563</v>
+        <v>9389.235568002379</v>
       </c>
       <c r="E77" t="n">
-        <v>1.084344760355687</v>
+        <v>-0.8635394278459914</v>
       </c>
       <c r="F77" t="n">
-        <v>8.258092860219531</v>
+        <v>6.819262019736361</v>
       </c>
       <c r="G77" t="n">
-        <v>613649582</v>
+        <v>252134054</v>
       </c>
       <c r="H77" t="n">
-        <v>22.34869129865988</v>
+        <v>22.9279997877733</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>img57_1.jpg</t>
+          <t>img169_3.jpg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>390.1554594771931</v>
+        <v>249.3251142756681</v>
       </c>
       <c r="D78" t="n">
-        <v>8067.511643190965</v>
+        <v>5661.580482102003</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2158832548640416</v>
+        <v>3.058053061366428</v>
       </c>
       <c r="F78" t="n">
-        <v>6.386960139988537</v>
+        <v>10.59409993822782</v>
       </c>
       <c r="G78" t="n">
-        <v>125570233</v>
+        <v>114587908</v>
       </c>
       <c r="H78" t="n">
-        <v>22.70011340121069</v>
+        <v>21.63586170916307</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;40_2.jpg</t>
+          <t>img174_4.jpg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>403.7559729090751</v>
+        <v>415.4561764989397</v>
       </c>
       <c r="D79" t="n">
-        <v>8143.155857718893</v>
+        <v>12793.55601038004</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.7387393688377117</v>
+        <v>-0.3831911026081389</v>
       </c>
       <c r="F79" t="n">
-        <v>7.025619382941607</v>
+        <v>5.658922895743946</v>
       </c>
       <c r="G79" t="n">
-        <v>56663727458</v>
+        <v>2442344962</v>
       </c>
       <c r="H79" t="n">
-        <v>22.9288948379318</v>
+        <v>23.45963328637648</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>img223_2.jpg</t>
+          <t>2023-09-13&amp;947_3.jpg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>409.7884813042708</v>
+        <v>310.3136713518696</v>
       </c>
       <c r="D80" t="n">
-        <v>7721.755321227924</v>
+        <v>10453.17470898951</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.7168914847437</v>
+        <v>1.467078230140166</v>
       </c>
       <c r="F80" t="n">
-        <v>8.187591150572256</v>
+        <v>6.780380763798808</v>
       </c>
       <c r="G80" t="n">
-        <v>17039415</v>
+        <v>23618946683</v>
       </c>
       <c r="H80" t="n">
-        <v>22.37045703284926</v>
+        <v>23.13055162303768</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>img55_2.jpg</t>
+          <t>img95_3.jpg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>503.7487599530087</v>
+        <v>373.8783415960033</v>
       </c>
       <c r="D81" t="n">
-        <v>8078.791622759889</v>
+        <v>7385.657873736577</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.065053532267211</v>
+        <v>-0.08717266292854217</v>
       </c>
       <c r="F81" t="n">
-        <v>7.094269839410349</v>
+        <v>6.209528043574537</v>
       </c>
       <c r="G81" t="n">
-        <v>432307944</v>
+        <v>1154656925</v>
       </c>
       <c r="H81" t="n">
-        <v>22.59925276903203</v>
+        <v>22.68042603332743</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>img289_3.jpg</t>
+          <t>img72_2.jpg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>171.2337168910117</v>
+        <v>321.8006909011496</v>
       </c>
       <c r="D82" t="n">
-        <v>2146.548130998873</v>
+        <v>13269.13677262516</v>
       </c>
       <c r="E82" t="n">
-        <v>1.790994268282938</v>
+        <v>0.8659677078538943</v>
       </c>
       <c r="F82" t="n">
-        <v>7.665504729232724</v>
+        <v>6.036905651973655</v>
       </c>
       <c r="G82" t="n">
-        <v>3497476</v>
+        <v>595046804</v>
       </c>
       <c r="H82" t="n">
-        <v>19.31333984418873</v>
+        <v>23.41620493291076</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;1107_1.jpg</t>
+          <t>img297_3.jpg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>227.9733474458456</v>
+        <v>323.0621729763004</v>
       </c>
       <c r="D83" t="n">
-        <v>7947.367566516108</v>
+        <v>9160.515142983006</v>
       </c>
       <c r="E83" t="n">
-        <v>2.111970189655122</v>
+        <v>0.4577425302988465</v>
       </c>
       <c r="F83" t="n">
-        <v>8.00739407473192</v>
+        <v>6.654557015810307</v>
       </c>
       <c r="G83" t="n">
-        <v>3814401479</v>
+        <v>11809240</v>
       </c>
       <c r="H83" t="n">
-        <v>22.2311034566141</v>
+        <v>22.77923801060465</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>img236_1.jpg</t>
+          <t>img19_3.jpg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>372.856344400825</v>
+        <v>350.350697626685</v>
       </c>
       <c r="D84" t="n">
-        <v>7406.307818764111</v>
+        <v>13200.82782185821</v>
       </c>
       <c r="E84" t="n">
-        <v>0.06801147407014389</v>
+        <v>0.6109123353476291</v>
       </c>
       <c r="F84" t="n">
-        <v>6.429070223556097</v>
+        <v>5.056117386079332</v>
       </c>
       <c r="G84" t="n">
-        <v>63924308</v>
+        <v>10575983268</v>
       </c>
       <c r="H84" t="n">
-        <v>22.60615763046336</v>
+        <v>23.24851699122017</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;20_2.jpg</t>
+          <t>img34_3.jpg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>349.5451830379361</v>
+        <v>382.7596845206043</v>
       </c>
       <c r="D85" t="n">
-        <v>5397.897115429039</v>
+        <v>12274.9789919085</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4925613798006824</v>
+        <v>-0.3408457805719179</v>
       </c>
       <c r="F85" t="n">
-        <v>8.361871773991659</v>
+        <v>5.300515141681432</v>
       </c>
       <c r="G85" t="n">
-        <v>85954488930</v>
+        <v>145385023</v>
       </c>
       <c r="H85" t="n">
-        <v>22.06908376162003</v>
+        <v>23.08328779832675</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>img282_4.jpg</t>
+          <t>img261_3.jpg</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>480.0300796630346</v>
+        <v>375.7071713147411</v>
       </c>
       <c r="D86" t="n">
-        <v>12603.75253452006</v>
+        <v>8406.245876426583</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.596156974881309</v>
+        <v>-1.080414457572325</v>
       </c>
       <c r="F86" t="n">
-        <v>6.390096297157151</v>
+        <v>7.616736611774269</v>
       </c>
       <c r="G86" t="n">
-        <v>8028592</v>
+        <v>14651820</v>
       </c>
       <c r="H86" t="n">
-        <v>23.03801930661916</v>
+        <v>22.43321147509281</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>img240_2.jpg</t>
+          <t>img236_1.jpg</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>355.707848324515</v>
+        <v>365.146283851221</v>
       </c>
       <c r="D87" t="n">
-        <v>8250.211840055181</v>
+        <v>7406.307818764111</v>
       </c>
       <c r="E87" t="n">
-        <v>1.237318542955657</v>
+        <v>0.06801147407014389</v>
       </c>
       <c r="F87" t="n">
-        <v>8.393199343663444</v>
+        <v>6.429070223556097</v>
       </c>
       <c r="G87" t="n">
-        <v>2476878</v>
+        <v>63924308</v>
       </c>
       <c r="H87" t="n">
-        <v>22.45121260297151</v>
+        <v>22.60615763046336</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>img254_2.jpg</t>
+          <t>img46_4.jpg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>366.392552026287</v>
+        <v>420.6270610994262</v>
       </c>
       <c r="D88" t="n">
-        <v>8893.980650533364</v>
+        <v>16600.66657233312</v>
       </c>
       <c r="E88" t="n">
-        <v>1.184120941718636</v>
+        <v>-0.5872235340643376</v>
       </c>
       <c r="F88" t="n">
-        <v>6.542892657149364</v>
+        <v>5.219004100582508</v>
       </c>
       <c r="G88" t="n">
-        <v>12729052</v>
+        <v>348140990</v>
       </c>
       <c r="H88" t="n">
-        <v>22.84909722857563</v>
+        <v>23.51153946001901</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>img222_1.jpg</t>
+          <t>2023-09-13&amp;30_1.jpg</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>309.9520104895105</v>
+        <v>252.6019522360293</v>
       </c>
       <c r="D89" t="n">
-        <v>7133.583666083152</v>
+        <v>9283.413684896494</v>
       </c>
       <c r="E89" t="n">
-        <v>1.844400170045466</v>
+        <v>2.932143675958205</v>
       </c>
       <c r="F89" t="n">
-        <v>7.666470508501824</v>
+        <v>8.097777570906139</v>
       </c>
       <c r="G89" t="n">
-        <v>10722474</v>
+        <v>21216898278</v>
       </c>
       <c r="H89" t="n">
-        <v>22.22524023973336</v>
+        <v>21.67485106889223</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>img159_3.jpg</t>
+          <t>img18_2.jpg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>314.3830046157519</v>
+        <v>358.4572277569994</v>
       </c>
       <c r="D90" t="n">
-        <v>9299.338785980284</v>
+        <v>14135.78349076137</v>
       </c>
       <c r="E90" t="n">
-        <v>2.018299412212277</v>
+        <v>0.334952041535615</v>
       </c>
       <c r="F90" t="n">
-        <v>7.907771567037285</v>
+        <v>5.378657204238415</v>
       </c>
       <c r="G90" t="n">
-        <v>1605003526</v>
+        <v>4760670700</v>
       </c>
       <c r="H90" t="n">
-        <v>22.82404430832864</v>
+        <v>23.17820872172538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>img268_3.jpg</t>
+          <t>img242_2.jpg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>348.5390031498981</v>
+        <v>312.6925815532373</v>
       </c>
       <c r="D91" t="n">
-        <v>9379.047425490748</v>
+        <v>9005.922817450084</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1342288233060198</v>
+        <v>1.367893661193926</v>
       </c>
       <c r="F91" t="n">
-        <v>5.755499398933242</v>
+        <v>6.781052433582774</v>
       </c>
       <c r="G91" t="n">
-        <v>100962507</v>
+        <v>10944276</v>
       </c>
       <c r="H91" t="n">
-        <v>23.07973174245188</v>
+        <v>22.63925110055916</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>img296_3.jpg</t>
+          <t>img76_4.jpg</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>515.8934900607499</v>
+        <v>386.6338338052845</v>
       </c>
       <c r="D92" t="n">
-        <v>7544.35728535114</v>
+        <v>15547.49952669102</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.318667761629349</v>
+        <v>0.7303106611498731</v>
       </c>
       <c r="F92" t="n">
-        <v>9.273443792006129</v>
+        <v>5.358912335943234</v>
       </c>
       <c r="G92" t="n">
-        <v>16133877</v>
+        <v>590441092</v>
       </c>
       <c r="H92" t="n">
-        <v>22.350186043721</v>
+        <v>23.54653949573036</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>img102_4.jpg</t>
+          <t>img66_2.jpg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>301.8976533882784</v>
+        <v>461.2846780860274</v>
       </c>
       <c r="D93" t="n">
-        <v>8560.738419703473</v>
+        <v>11535.90323040166</v>
       </c>
       <c r="E93" t="n">
-        <v>3.237610779103825</v>
+        <v>-1.07049794715989</v>
       </c>
       <c r="F93" t="n">
-        <v>8.485373346896363</v>
+        <v>6.295384772502344</v>
       </c>
       <c r="G93" t="n">
-        <v>245099194</v>
+        <v>3412041152</v>
       </c>
       <c r="H93" t="n">
-        <v>21.19504436965475</v>
+        <v>23.14596572423688</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>img106_3.jpg</t>
+          <t>img147_2.jpg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>344.7785601331669</v>
+        <v>372.3252541071703</v>
       </c>
       <c r="D94" t="n">
-        <v>7654.527155100375</v>
+        <v>12800.55085857541</v>
       </c>
       <c r="E94" t="n">
-        <v>2.204171026033486</v>
+        <v>0.428705294498765</v>
       </c>
       <c r="F94" t="n">
-        <v>7.874406869335161</v>
+        <v>6.126273822298328</v>
       </c>
       <c r="G94" t="n">
-        <v>338952688</v>
+        <v>1505935692</v>
       </c>
       <c r="H94" t="n">
-        <v>22.00403246822648</v>
+        <v>23.48510017264248</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>img171_3.jpg</t>
+          <t>img41_1.jpg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>337.2613052526947</v>
+        <v>271.5507613377514</v>
       </c>
       <c r="D95" t="n">
-        <v>9954.573831948503</v>
+        <v>6321.22419949883</v>
       </c>
       <c r="E95" t="n">
-        <v>1.63889810831834</v>
+        <v>1.601165022229793</v>
       </c>
       <c r="F95" t="n">
-        <v>6.996261974710206</v>
+        <v>9.876015133008988</v>
       </c>
       <c r="G95" t="n">
-        <v>495078275</v>
+        <v>2408798417</v>
       </c>
       <c r="H95" t="n">
-        <v>22.54251961230604</v>
+        <v>22.10919114025576</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>img5_4.jpg</t>
+          <t>img2_4.jpg</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>421.9651328039942</v>
+        <v>454.7065069241022</v>
       </c>
       <c r="D96" t="n">
-        <v>13724.05844101386</v>
+        <v>16107.70644488016</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.4214946105330383</v>
+        <v>-1.034301829324927</v>
       </c>
       <c r="F96" t="n">
-        <v>5.217583820844552</v>
+        <v>5.150455892405333</v>
       </c>
       <c r="G96" t="n">
-        <v>5499896834</v>
+        <v>4681801292</v>
       </c>
       <c r="H96" t="n">
-        <v>23.28880175420117</v>
+        <v>23.27289957174315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;1105_2.jpg</t>
+          <t>img99_3.jpg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>322.7185068657162</v>
+        <v>378.3569552294661</v>
       </c>
       <c r="D97" t="n">
-        <v>16787.0737076958</v>
+        <v>7138.299556820542</v>
       </c>
       <c r="E97" t="n">
-        <v>1.511285460217622</v>
+        <v>-0.6980942629518306</v>
       </c>
       <c r="F97" t="n">
-        <v>5.391074108078815</v>
+        <v>6.050265229406357</v>
       </c>
       <c r="G97" t="n">
-        <v>30381439143</v>
+        <v>396811025</v>
       </c>
       <c r="H97" t="n">
-        <v>22.72560715487124</v>
+        <v>22.05602211106372</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>img161_4.jpg</t>
+          <t>img138_4.jpg</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>477.5315407934626</v>
+        <v>459.5523263820579</v>
       </c>
       <c r="D98" t="n">
-        <v>10926.33192122621</v>
+        <v>14322.34824027012</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.021853728633553</v>
+        <v>-0.7461809773053705</v>
       </c>
       <c r="F98" t="n">
-        <v>5.434843782877627</v>
+        <v>5.572418502041351</v>
       </c>
       <c r="G98" t="n">
-        <v>1767532436</v>
+        <v>3521834150</v>
       </c>
       <c r="H98" t="n">
-        <v>22.61182078848072</v>
+        <v>23.05284153516341</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>img24_3.jpg</t>
+          <t>img239_3.jpg</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>472.726476334205</v>
+        <v>301.3311615915267</v>
       </c>
       <c r="D99" t="n">
-        <v>15315.11075515258</v>
+        <v>6690.254533389441</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.018513219733721</v>
+        <v>0.7251731901808283</v>
       </c>
       <c r="F99" t="n">
-        <v>5.386467486540742</v>
+        <v>6.253020630218687</v>
       </c>
       <c r="G99" t="n">
-        <v>5670909638</v>
+        <v>15288674</v>
       </c>
       <c r="H99" t="n">
-        <v>23.17235575789159</v>
+        <v>22.32240072917769</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;21_3.jpg</t>
+          <t>img263_1.jpg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>320.9072591523669</v>
+        <v>429.1078867924529</v>
       </c>
       <c r="D100" t="n">
-        <v>14411.6658920028</v>
+        <v>7674.263585935208</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.3479552419723463</v>
+        <v>-0.611134993781342</v>
       </c>
       <c r="F100" t="n">
-        <v>5.056595740967087</v>
+        <v>6.829096285331824</v>
       </c>
       <c r="G100" t="n">
-        <v>40928384146</v>
+        <v>12308420</v>
       </c>
       <c r="H100" t="n">
-        <v>23.2083600375407</v>
+        <v>22.72999120181339</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>img60_2.jpg</t>
+          <t>2023-09-13&amp;997_1.jpg</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>460.3595444462231</v>
+        <v>344.5398998266843</v>
       </c>
       <c r="D101" t="n">
-        <v>14844.74220918967</v>
+        <v>14266.55550800608</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.7462863523981748</v>
+        <v>1.442848251053016</v>
       </c>
       <c r="F101" t="n">
-        <v>5.462560177140072</v>
+        <v>6.602525201435119</v>
       </c>
       <c r="G101" t="n">
-        <v>7593451593</v>
+        <v>39552693063</v>
       </c>
       <c r="H101" t="n">
-        <v>23.19958576100053</v>
+        <v>23.35944520953444</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>img173_4.jpg</t>
+          <t>img142_2.jpg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>471.7061623000687</v>
+        <v>395.2721806289919</v>
       </c>
       <c r="D102" t="n">
-        <v>13904.29291011805</v>
+        <v>12537.81283596288</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.2189910199419056</v>
+        <v>-0.09550680044009688</v>
       </c>
       <c r="F102" t="n">
-        <v>5.629132565624631</v>
+        <v>5.797292163197209</v>
       </c>
       <c r="G102" t="n">
-        <v>120729990</v>
+        <v>1401841600</v>
       </c>
       <c r="H102" t="n">
-        <v>23.15368132522316</v>
+        <v>23.36860425411988</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>img276_2.jpg</t>
+          <t>img97_4.jpg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>277.4291723370036</v>
+        <v>463.1882536393096</v>
       </c>
       <c r="D103" t="n">
-        <v>7314.047522503635</v>
+        <v>12613.7777377018</v>
       </c>
       <c r="E103" t="n">
-        <v>2.084436274139327</v>
+        <v>-2.321741815474145</v>
       </c>
       <c r="F103" t="n">
-        <v>8.083385364326826</v>
+        <v>7.205597433362048</v>
       </c>
       <c r="G103" t="n">
-        <v>6209406</v>
+        <v>859370676</v>
       </c>
       <c r="H103" t="n">
-        <v>21.88330654212583</v>
+        <v>22.67891457533146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>img245_2.jpg</t>
+          <t>img170_2.jpg</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>297.0201264488936</v>
+        <v>389.5348083103765</v>
       </c>
       <c r="D104" t="n">
-        <v>8723.710755637068</v>
+        <v>9979.702111959719</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9559154226538052</v>
+        <v>-0.1089388032338045</v>
       </c>
       <c r="F104" t="n">
-        <v>6.935846966826135</v>
+        <v>7.234972758766389</v>
       </c>
       <c r="G104" t="n">
-        <v>7667896</v>
+        <v>688965708</v>
       </c>
       <c r="H104" t="n">
-        <v>22.30638822136135</v>
+        <v>23.13127586700006</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>img165_3.jpg</t>
+          <t>img23_2.jpg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>376.7123670726793</v>
+        <v>277.6338865102571</v>
       </c>
       <c r="D105" t="n">
-        <v>11663.3480536555</v>
+        <v>8814.82236766753</v>
       </c>
       <c r="E105" t="n">
-        <v>0.444415590042153</v>
+        <v>0.740185299143578</v>
       </c>
       <c r="F105" t="n">
-        <v>5.897204217596666</v>
+        <v>7.427029246123386</v>
       </c>
       <c r="G105" t="n">
-        <v>5179045893</v>
+        <v>9182854962</v>
       </c>
       <c r="H105" t="n">
-        <v>23.42320051957796</v>
+        <v>22.44027608251162</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>img272_1.jpg</t>
+          <t>img230_2.jpg</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>296.8112724824468</v>
+        <v>465.6417222963952</v>
       </c>
       <c r="D106" t="n">
-        <v>7181.314405432963</v>
+        <v>9754.748797787348</v>
       </c>
       <c r="E106" t="n">
-        <v>1.73493208722086</v>
+        <v>-0.9278482314311481</v>
       </c>
       <c r="F106" t="n">
-        <v>8.694914459028308</v>
+        <v>8.267971581087227</v>
       </c>
       <c r="G106" t="n">
-        <v>51247099</v>
+        <v>4416922</v>
       </c>
       <c r="H106" t="n">
-        <v>22.41546449256098</v>
+        <v>22.66617952595017</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>img225_5.jpg</t>
+          <t>img133_2.jpg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>320.2562030075188</v>
+        <v>334.3579365079365</v>
       </c>
       <c r="D107" t="n">
-        <v>12069.25846801371</v>
+        <v>10722.05960915848</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3524149775817639</v>
+        <v>0.04715247225788675</v>
       </c>
       <c r="F107" t="n">
-        <v>5.224377785920621</v>
+        <v>5.851655374011306</v>
       </c>
       <c r="G107" t="n">
-        <v>4259998</v>
+        <v>104570</v>
       </c>
       <c r="H107" t="n">
-        <v>23.00952397098116</v>
+        <v>22.92491509760932</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>img168_3.jpg</t>
+          <t>img280_3.jpg</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>240.4168391843292</v>
+        <v>244.2635514018692</v>
       </c>
       <c r="D108" t="n">
-        <v>5749.400130641673</v>
+        <v>4877.735783470411</v>
       </c>
       <c r="E108" t="n">
-        <v>2.229600814183608</v>
+        <v>3.330045860975615</v>
       </c>
       <c r="F108" t="n">
-        <v>8.532304316043053</v>
+        <v>14.90620456784004</v>
       </c>
       <c r="G108" t="n">
-        <v>1754157349</v>
+        <v>4036961</v>
       </c>
       <c r="H108" t="n">
-        <v>21.74474442697959</v>
+        <v>21.26991004115074</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>img2_4.jpg</t>
+          <t>img276_2.jpg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>468.2949765431448</v>
+        <v>256.7703822838055</v>
       </c>
       <c r="D109" t="n">
-        <v>16107.70644488016</v>
+        <v>7314.047522503635</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.034301829324927</v>
+        <v>2.084436274139327</v>
       </c>
       <c r="F109" t="n">
-        <v>5.150455892405333</v>
+        <v>8.083385364326826</v>
       </c>
       <c r="G109" t="n">
-        <v>4681801292</v>
+        <v>6209406</v>
       </c>
       <c r="H109" t="n">
-        <v>23.27289957174315</v>
+        <v>21.88330654212583</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>img149_2.jpg</t>
+          <t>img161_4.jpg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>348.8922623828648</v>
+        <v>443.8678331356268</v>
       </c>
       <c r="D110" t="n">
-        <v>7596.179190871417</v>
+        <v>10926.33192122621</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9310488266586572</v>
+        <v>-1.021853728633553</v>
       </c>
       <c r="F110" t="n">
-        <v>6.696276805016966</v>
+        <v>5.434843782877627</v>
       </c>
       <c r="G110" t="n">
-        <v>1036540297</v>
+        <v>1767532436</v>
       </c>
       <c r="H110" t="n">
-        <v>22.61110673775385</v>
+        <v>22.61182078848072</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>img139_3.jpg</t>
+          <t>img89_5.jpg</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>320.9574100378788</v>
+        <v>452.2950784440146</v>
       </c>
       <c r="D111" t="n">
-        <v>7595.747284722167</v>
+        <v>16603.67007185366</v>
       </c>
       <c r="E111" t="n">
-        <v>2.011075436994852</v>
+        <v>-0.7121305169417699</v>
       </c>
       <c r="F111" t="n">
-        <v>7.912965085510514</v>
+        <v>4.42574353628199</v>
       </c>
       <c r="G111" t="n">
-        <v>562550332</v>
+        <v>730565305</v>
       </c>
       <c r="H111" t="n">
-        <v>22.36934146255147</v>
+        <v>22.92669882190115</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;c49_3.jpg</t>
+          <t>img61_3.jpg</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>327.9599769174043</v>
+        <v>501.995690578978</v>
       </c>
       <c r="D112" t="n">
-        <v>8600.420663525716</v>
+        <v>10630.26275048929</v>
       </c>
       <c r="E112" t="n">
-        <v>1.246373599185541</v>
+        <v>-2.654324342771847</v>
       </c>
       <c r="F112" t="n">
-        <v>6.766698104616713</v>
+        <v>9.174380984570405</v>
       </c>
       <c r="G112" t="n">
-        <v>36167894886</v>
+        <v>364305028</v>
       </c>
       <c r="H112" t="n">
-        <v>22.84795168290199</v>
+        <v>22.63411870113373</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>img244_3.jpg</t>
+          <t>2023-09-13&amp;970_1.jpg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>415.2812526812527</v>
+        <v>363.1883207501707</v>
       </c>
       <c r="D113" t="n">
-        <v>9675.431392658516</v>
+        <v>11735.66108961808</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.3349232416625966</v>
+        <v>0.1022316263923668</v>
       </c>
       <c r="F113" t="n">
-        <v>6.111258658944963</v>
+        <v>6.20346417678854</v>
       </c>
       <c r="G113" t="n">
-        <v>32678298</v>
+        <v>18969275254</v>
       </c>
       <c r="H113" t="n">
-        <v>23.19478061473424</v>
+        <v>23.64278084842823</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;m49_3.jpg</t>
+          <t>2023-09-13&amp;1107_1.jpg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>400.661831509395</v>
+        <v>214.4267212475087</v>
       </c>
       <c r="D114" t="n">
-        <v>7777.775830208674</v>
+        <v>7947.367566516108</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.8675733061680939</v>
+        <v>2.111970189655122</v>
       </c>
       <c r="F114" t="n">
-        <v>7.465819277140762</v>
+        <v>8.00739407473192</v>
       </c>
       <c r="G114" t="n">
-        <v>35870092806</v>
+        <v>3814401479</v>
       </c>
       <c r="H114" t="n">
-        <v>22.56590632762417</v>
+        <v>22.2311034566141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>img238_3.jpg</t>
+          <t>img50_4.jpg</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>454.9112982918451</v>
+        <v>474.8757135782906</v>
       </c>
       <c r="D115" t="n">
-        <v>11852.28684063499</v>
+        <v>11864.96814201543</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9510309634558112</v>
+        <v>-1.552319860265473</v>
       </c>
       <c r="F115" t="n">
-        <v>5.895626943120217</v>
+        <v>6.947675285229891</v>
       </c>
       <c r="G115" t="n">
-        <v>32727586</v>
+        <v>1040872723</v>
       </c>
       <c r="H115" t="n">
-        <v>22.92758274052031</v>
+        <v>23.20097283660564</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;31_1.jpg</t>
+          <t>img251_1.jpg</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>308.7792673499771</v>
+        <v>260.990931695188</v>
       </c>
       <c r="D116" t="n">
-        <v>5052.540798237049</v>
+        <v>7414.416405647038</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5291848192962619</v>
+        <v>1.855476724494797</v>
       </c>
       <c r="F116" t="n">
-        <v>8.899981968220008</v>
+        <v>9.116401480613955</v>
       </c>
       <c r="G116" t="n">
-        <v>29190709748</v>
+        <v>3583166</v>
       </c>
       <c r="H116" t="n">
-        <v>21.66192292937735</v>
+        <v>22.45814327619977</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>img136_3.jpg</t>
+          <t>img56_2.jpg</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>454.4852367615956</v>
+        <v>519.2029081255563</v>
       </c>
       <c r="D117" t="n">
-        <v>10104.41899688797</v>
+        <v>11046.46564594883</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.5338608928916057</v>
+        <v>-2.177918988936846</v>
       </c>
       <c r="F117" t="n">
-        <v>6.521339251735077</v>
+        <v>8.077629470595406</v>
       </c>
       <c r="G117" t="n">
-        <v>5846228444</v>
+        <v>5475240413</v>
       </c>
       <c r="H117" t="n">
-        <v>23.17345279675767</v>
+        <v>22.15216570010585</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>img72_2.jpg</t>
+          <t>img131_2.jpg</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>359.9803400901348</v>
+        <v>382.800435413643</v>
       </c>
       <c r="D118" t="n">
-        <v>13269.13677262516</v>
+        <v>20889.65373140809</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8659677078538943</v>
+        <v>0.3332566563149907</v>
       </c>
       <c r="F118" t="n">
-        <v>6.036905651973655</v>
+        <v>4.332423162354599</v>
       </c>
       <c r="G118" t="n">
-        <v>595046804</v>
+        <v>293380</v>
       </c>
       <c r="H118" t="n">
-        <v>23.41620493291076</v>
+        <v>23.19801258404262</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>img35_3.jpg</t>
+          <t>img44_3.jpg</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>492.5345123858436</v>
+        <v>439.4904603270745</v>
       </c>
       <c r="D119" t="n">
-        <v>15407.97928433965</v>
+        <v>15138.60779867026</v>
       </c>
       <c r="E119" t="n">
-        <v>-1.67885342378103</v>
+        <v>-0.8654389600969673</v>
       </c>
       <c r="F119" t="n">
-        <v>6.208937150125596</v>
+        <v>5.720174279400328</v>
       </c>
       <c r="G119" t="n">
-        <v>264426498</v>
+        <v>1390293350</v>
       </c>
       <c r="H119" t="n">
-        <v>23.00954172935622</v>
+        <v>23.22896699323222</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>img44_3.jpg</t>
+          <t>img98_3.jpg</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>483.1580367958812</v>
+        <v>338.4562684132997</v>
       </c>
       <c r="D120" t="n">
-        <v>15138.60779867026</v>
+        <v>8239.899359510015</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.8654389600969673</v>
+        <v>0.9640340159606401</v>
       </c>
       <c r="F120" t="n">
-        <v>5.720174279400328</v>
+        <v>5.852893620910564</v>
       </c>
       <c r="G120" t="n">
-        <v>1390293350</v>
+        <v>1023207246</v>
       </c>
       <c r="H120" t="n">
-        <v>23.22896699323222</v>
+        <v>22.33312538807762</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>img65_2.jpg</t>
+          <t>img108_2.jpg</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>564.8005402828539</v>
+        <v>540.3995976769086</v>
       </c>
       <c r="D121" t="n">
-        <v>9928.527915145009</v>
+        <v>5233.514281259918</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.8332087000166</v>
+        <v>-1.759588865729361</v>
       </c>
       <c r="F121" t="n">
-        <v>7.33004375519538</v>
+        <v>8.830730919274041</v>
       </c>
       <c r="G121" t="n">
-        <v>530651250</v>
+        <v>209210089</v>
       </c>
       <c r="H121" t="n">
-        <v>22.21026967648469</v>
+        <v>21.70221779552525</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>img58_2.jpg</t>
+          <t>img113_4.jpg</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>514.261347611493</v>
+        <v>343.8690865234983</v>
       </c>
       <c r="D122" t="n">
-        <v>8630.456669621903</v>
+        <v>10354.16169791306</v>
       </c>
       <c r="E122" t="n">
-        <v>-1.256873146287753</v>
+        <v>1.79713174502443</v>
       </c>
       <c r="F122" t="n">
-        <v>8.267500283577332</v>
+        <v>6.045088498337115</v>
       </c>
       <c r="G122" t="n">
-        <v>972821538</v>
+        <v>529587954</v>
       </c>
       <c r="H122" t="n">
-        <v>22.68479618720069</v>
+        <v>22.17864921282898</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>img226_1.jpg</t>
+          <t>img267_2.jpg</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>322.3454455445545</v>
+        <v>310.6932543829096</v>
       </c>
       <c r="D123" t="n">
-        <v>8864.941166193945</v>
+        <v>12907.16027669071</v>
       </c>
       <c r="E123" t="n">
-        <v>1.074500314129967</v>
+        <v>1.644258715538984</v>
       </c>
       <c r="F123" t="n">
-        <v>6.869473132554829</v>
+        <v>6.2335732038587</v>
       </c>
       <c r="G123" t="n">
-        <v>15801208</v>
+        <v>5146164</v>
       </c>
       <c r="H123" t="n">
-        <v>22.76610648596779</v>
+        <v>23.03232905199577</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>img259_2.jpg</t>
+          <t>img84_4.jpg</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>459.3117020273456</v>
+        <v>391.3241364227587</v>
       </c>
       <c r="D124" t="n">
-        <v>9047.638957510946</v>
+        <v>14004.97273464107</v>
       </c>
       <c r="E124" t="n">
-        <v>-1.096945537611629</v>
+        <v>-0.006891551589543771</v>
       </c>
       <c r="F124" t="n">
-        <v>7.023271250599731</v>
+        <v>5.273034781231903</v>
       </c>
       <c r="G124" t="n">
-        <v>45735823</v>
+        <v>989409081</v>
       </c>
       <c r="H124" t="n">
-        <v>23.04283418800925</v>
+        <v>23.44840920693629</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>img255_1.jpg</t>
+          <t>img6_3.jpg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>373.2981617647059</v>
+        <v>380.0089518973288</v>
       </c>
       <c r="D125" t="n">
-        <v>7341.83359867539</v>
+        <v>11068.47501827711</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7326607621882624</v>
+        <v>0.9706927377395147</v>
       </c>
       <c r="F125" t="n">
-        <v>7.312625998535458</v>
+        <v>6.209591078589487</v>
       </c>
       <c r="G125" t="n">
-        <v>3285558</v>
+        <v>3779701218</v>
       </c>
       <c r="H125" t="n">
-        <v>22.66510580571555</v>
+        <v>23.04025389303714</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>img231_3.jpg</t>
+          <t>img9_2.jpg</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>314.0602298850575</v>
+        <v>334.5452576116819</v>
       </c>
       <c r="D126" t="n">
-        <v>8626.067237201083</v>
+        <v>9713.290223560951</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4137069125163323</v>
+        <v>1.192018792794044</v>
       </c>
       <c r="F126" t="n">
-        <v>6.843846940051076</v>
+        <v>6.163506513782943</v>
       </c>
       <c r="G126" t="n">
-        <v>5422384</v>
+        <v>7976275627</v>
       </c>
       <c r="H126" t="n">
-        <v>22.69663304101059</v>
+        <v>22.61457821388068</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>img34_3.jpg</t>
+          <t>img11_4.jpg</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>426.6348442135715</v>
+        <v>389.3458494452359</v>
       </c>
       <c r="D127" t="n">
-        <v>12274.9789919085</v>
+        <v>12081.4473742339</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.3408457805719179</v>
+        <v>0.788883850736377</v>
       </c>
       <c r="F127" t="n">
-        <v>5.300515141681432</v>
+        <v>6.277767522607476</v>
       </c>
       <c r="G127" t="n">
-        <v>145385023</v>
+        <v>18969596158</v>
       </c>
       <c r="H127" t="n">
-        <v>23.08328779832675</v>
+        <v>23.4217112348324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>img157_3.jpg</t>
+          <t>img93_5.jpg</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>289.6138314501974</v>
+        <v>468.1936957514847</v>
       </c>
       <c r="D128" t="n">
-        <v>6214.535595834374</v>
+        <v>15001.6539189226</v>
       </c>
       <c r="E128" t="n">
-        <v>1.661922816296325</v>
+        <v>-1.200703268103573</v>
       </c>
       <c r="F128" t="n">
-        <v>7.39207538390742</v>
+        <v>4.898912276013005</v>
       </c>
       <c r="G128" t="n">
-        <v>453101958</v>
+        <v>637753410</v>
       </c>
       <c r="H128" t="n">
-        <v>21.93949665055617</v>
+        <v>22.82824272839258</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>img15_4.jpg</t>
+          <t>img155_3.jpg</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>410.5495946590366</v>
+        <v>415.9890699899083</v>
       </c>
       <c r="D129" t="n">
-        <v>14655.53382121429</v>
+        <v>11856.25381133652</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7204702507400895</v>
+        <v>-0.3915177537916516</v>
       </c>
       <c r="F129" t="n">
-        <v>4.58607033514973</v>
+        <v>5.380566663475912</v>
       </c>
       <c r="G129" t="n">
-        <v>21609982664</v>
+        <v>2740491596</v>
       </c>
       <c r="H129" t="n">
-        <v>22.94692833287408</v>
+        <v>22.67317103947402</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>img221_2.jpg</t>
+          <t>img283_2.jpg</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>505.805540613233</v>
+        <v>388.9253574483686</v>
       </c>
       <c r="D130" t="n">
-        <v>5475.436330230748</v>
+        <v>8619.545581193393</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.6387917259218741</v>
+        <v>0.06887745176873859</v>
       </c>
       <c r="F130" t="n">
-        <v>7.689172598004175</v>
+        <v>6.293324682667271</v>
       </c>
       <c r="G130" t="n">
-        <v>10246190</v>
+        <v>27915107</v>
       </c>
       <c r="H130" t="n">
-        <v>22.08474650164523</v>
+        <v>22.88779279678684</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;37_1.jpg</t>
+          <t>img287_3.jpg</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>314.1882145879289</v>
+        <v>406.1489149605092</v>
       </c>
       <c r="D131" t="n">
-        <v>12137.46572078259</v>
+        <v>6732.404408175002</v>
       </c>
       <c r="E131" t="n">
-        <v>1.451341026306434</v>
+        <v>-1.237912891114624</v>
       </c>
       <c r="F131" t="n">
-        <v>6.729363380991571</v>
+        <v>6.587654938446859</v>
       </c>
       <c r="G131" t="n">
-        <v>73066216499</v>
+        <v>14228150</v>
       </c>
       <c r="H131" t="n">
-        <v>23.34051329685847</v>
+        <v>22.05999409425579</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;28_1.jpg</t>
+          <t>img127_2.jpg</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>202.7868971285197</v>
+        <v>527.8791092258748</v>
       </c>
       <c r="D132" t="n">
-        <v>9212.700991833221</v>
+        <v>13825.02060460568</v>
       </c>
       <c r="E132" t="n">
-        <v>2.791988568129106</v>
+        <v>-2.206279626491559</v>
       </c>
       <c r="F132" t="n">
-        <v>9.352922456484272</v>
+        <v>6.665703698139109</v>
       </c>
       <c r="G132" t="n">
-        <v>65823947896</v>
+        <v>695114</v>
       </c>
       <c r="H132" t="n">
-        <v>21.09707807081465</v>
+        <v>21.84306612463662</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>img88_5.jpg</t>
+          <t>img225_5.jpg</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>477.1491909595227</v>
+        <v>327.7637844611529</v>
       </c>
       <c r="D133" t="n">
-        <v>12610.51395697258</v>
+        <v>12069.25846801371</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.352522480595186</v>
+        <v>0.3524149775817639</v>
       </c>
       <c r="F133" t="n">
-        <v>5.833867403202603</v>
+        <v>5.224377785920621</v>
       </c>
       <c r="G133" t="n">
-        <v>311665123</v>
+        <v>4259998</v>
       </c>
       <c r="H133" t="n">
-        <v>23.18877438557476</v>
+        <v>23.00952397098116</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>img227_4.jpg</t>
+          <t>img258_3.jpg</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>524.3415710256626</v>
+        <v>207.5586734693878</v>
       </c>
       <c r="D134" t="n">
-        <v>7836.473744690677</v>
+        <v>3443.362077554809</v>
       </c>
       <c r="E134" t="n">
-        <v>-1.314422582396961</v>
+        <v>0.08260751421596471</v>
       </c>
       <c r="F134" t="n">
-        <v>6.769188836125943</v>
+        <v>8.099794426708796</v>
       </c>
       <c r="G134" t="n">
-        <v>24603719</v>
+        <v>31036472</v>
       </c>
       <c r="H134" t="n">
-        <v>22.44832166337056</v>
+        <v>20.99702896208289</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>img31_3.jpg</t>
+          <t>img49_3.jpg</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>484.1982704599574</v>
+        <v>389.3333710212609</v>
       </c>
       <c r="D135" t="n">
-        <v>11282.72532940826</v>
+        <v>10379.864883875</v>
       </c>
       <c r="E135" t="n">
-        <v>-1.135662350166244</v>
+        <v>0.2975509942146294</v>
       </c>
       <c r="F135" t="n">
-        <v>7.150239257340305</v>
+        <v>6.30553144635442</v>
       </c>
       <c r="G135" t="n">
-        <v>598470268</v>
+        <v>634514319</v>
       </c>
       <c r="H135" t="n">
-        <v>23.25732812237608</v>
+        <v>23.20125789739248</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;26_3.jpg</t>
+          <t>img159_3.jpg</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>358.1668869795109</v>
+        <v>293.681297583362</v>
       </c>
       <c r="D136" t="n">
-        <v>8270.353741567011</v>
+        <v>9299.338785980284</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4413637738030775</v>
+        <v>2.018299412212277</v>
       </c>
       <c r="F136" t="n">
-        <v>6.823527703740935</v>
+        <v>7.907771567037285</v>
       </c>
       <c r="G136" t="n">
-        <v>74016787092</v>
+        <v>1605003526</v>
       </c>
       <c r="H136" t="n">
-        <v>23.02852028790842</v>
+        <v>22.82404430832864</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>img66_2.jpg</t>
+          <t>img238_3.jpg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>494.5297002640023</v>
+        <v>422.3434426615219</v>
       </c>
       <c r="D137" t="n">
-        <v>11535.90323040166</v>
+        <v>11852.28684063499</v>
       </c>
       <c r="E137" t="n">
-        <v>-1.07049794715989</v>
+        <v>0.9510309634558112</v>
       </c>
       <c r="F137" t="n">
-        <v>6.295384772502344</v>
+        <v>5.895626943120217</v>
       </c>
       <c r="G137" t="n">
-        <v>3412041152</v>
+        <v>32727586</v>
       </c>
       <c r="H137" t="n">
-        <v>23.14596572423688</v>
+        <v>22.92758274052031</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>img140_3.jpg</t>
+          <t>img39_3.jpg</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>434.7439114152892</v>
+        <v>320.6885552598154</v>
       </c>
       <c r="D138" t="n">
-        <v>8078.981698932062</v>
+        <v>10407.39323914402</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3774772034794514</v>
+        <v>-0.01455194385173323</v>
       </c>
       <c r="F138" t="n">
-        <v>6.91129034680336</v>
+        <v>5.921755937248617</v>
       </c>
       <c r="G138" t="n">
-        <v>422843736</v>
+        <v>3931653880</v>
       </c>
       <c r="H138" t="n">
-        <v>22.55846545003395</v>
+        <v>23.02905011212203</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>img265_2.jpg</t>
+          <t>img167_4.jpg</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>393.1217420360882</v>
+        <v>395.4332428831406</v>
       </c>
       <c r="D139" t="n">
-        <v>4517.119993904433</v>
+        <v>11016.7082161093</v>
       </c>
       <c r="E139" t="n">
-        <v>0.07290016591278314</v>
+        <v>-0.06011317782767411</v>
       </c>
       <c r="F139" t="n">
-        <v>7.812395379114866</v>
+        <v>5.622708790259743</v>
       </c>
       <c r="G139" t="n">
-        <v>30959524</v>
+        <v>2047866696</v>
       </c>
       <c r="H139" t="n">
-        <v>21.63381067002245</v>
+        <v>23.23762755887702</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>img62_4.jpg</t>
+          <t>img243_1.jpg</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>557.7133599863578</v>
+        <v>385.3406280193237</v>
       </c>
       <c r="D140" t="n">
-        <v>8882.055489599257</v>
+        <v>5755.138608254568</v>
       </c>
       <c r="E140" t="n">
-        <v>-3.473121711209209</v>
+        <v>1.006548078188419</v>
       </c>
       <c r="F140" t="n">
-        <v>10.34111073831236</v>
+        <v>7.834056912716473</v>
       </c>
       <c r="G140" t="n">
-        <v>7579731132</v>
+        <v>34678822</v>
       </c>
       <c r="H140" t="n">
-        <v>21.88470779978167</v>
+        <v>22.18186481195307</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>img71_2.jpg</t>
+          <t>2023-09-13&amp;24_2.jpg</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>346.9357295200469</v>
+        <v>316.4196420874384</v>
       </c>
       <c r="D141" t="n">
-        <v>7368.874445968086</v>
+        <v>11029.28494434966</v>
       </c>
       <c r="E141" t="n">
-        <v>1.666224948152909</v>
+        <v>1.372621181096064</v>
       </c>
       <c r="F141" t="n">
-        <v>7.60297299593298</v>
+        <v>7.715246171620853</v>
       </c>
       <c r="G141" t="n">
-        <v>411343174</v>
+        <v>24968730422</v>
       </c>
       <c r="H141" t="n">
-        <v>22.10813163418441</v>
+        <v>23.3233935295087</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>img61_3.jpg</t>
+          <t>2023-09-13&amp;m46_1.jpg</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>553.4452940816265</v>
+        <v>294.5810038311203</v>
       </c>
       <c r="D142" t="n">
-        <v>10630.26275048929</v>
+        <v>12685.85575379243</v>
       </c>
       <c r="E142" t="n">
-        <v>-2.654324342771847</v>
+        <v>1.677579061163913</v>
       </c>
       <c r="F142" t="n">
-        <v>9.174380984570405</v>
+        <v>6.274430814406394</v>
       </c>
       <c r="G142" t="n">
-        <v>364305028</v>
+        <v>61569952580</v>
       </c>
       <c r="H142" t="n">
-        <v>22.63411870113373</v>
+        <v>22.86175227087222</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>img91_5.jpg</t>
+          <t>img268_3.jpg</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>466.8580672369139</v>
+        <v>351.4282873201161</v>
       </c>
       <c r="D143" t="n">
-        <v>15590.477029953</v>
+        <v>9379.047425490748</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.427753810844616</v>
+        <v>0.1342288233060198</v>
       </c>
       <c r="F143" t="n">
-        <v>5.294760026090919</v>
+        <v>5.755499398933242</v>
       </c>
       <c r="G143" t="n">
-        <v>954469526</v>
+        <v>100962507</v>
       </c>
       <c r="H143" t="n">
-        <v>23.02892265287649</v>
+        <v>23.07973174245188</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>img99_3.jpg</t>
+          <t>img130_2.jpg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>402.9623038005657</v>
+        <v>278.0157828282829</v>
       </c>
       <c r="D144" t="n">
-        <v>7138.299556820542</v>
+        <v>10478.55966205794</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.6980942629518306</v>
+        <v>1.810833593297347</v>
       </c>
       <c r="F144" t="n">
-        <v>6.050265229406357</v>
+        <v>7.160318964209178</v>
       </c>
       <c r="G144" t="n">
-        <v>396811025</v>
+        <v>428296</v>
       </c>
       <c r="H144" t="n">
-        <v>22.05602211106372</v>
+        <v>22.63367334738267</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>img164_4.jpg</t>
+          <t>img253_2.jpg</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>295.2169614114302</v>
+        <v>494.1002067493664</v>
       </c>
       <c r="D145" t="n">
-        <v>6319.148700232608</v>
+        <v>8270.990431129769</v>
       </c>
       <c r="E145" t="n">
-        <v>1.644466209407038</v>
+        <v>-1.498719440847847</v>
       </c>
       <c r="F145" t="n">
-        <v>6.723926041885463</v>
+        <v>7.416107343892723</v>
       </c>
       <c r="G145" t="n">
-        <v>1271447838</v>
+        <v>16402872</v>
       </c>
       <c r="H145" t="n">
-        <v>21.86079210641087</v>
+        <v>22.61213937935564</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>img248_2.jpg</t>
+          <t>img221_2.jpg</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>475.9525459991441</v>
+        <v>491.9137977407208</v>
       </c>
       <c r="D146" t="n">
-        <v>10590.93057889043</v>
+        <v>5475.436330230748</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.6158125326231877</v>
+        <v>-0.6387917259218741</v>
       </c>
       <c r="F146" t="n">
-        <v>7.071966125326666</v>
+        <v>7.689172598004175</v>
       </c>
       <c r="G146" t="n">
-        <v>9012514</v>
+        <v>10246190</v>
       </c>
       <c r="H146" t="n">
-        <v>23.09447755650186</v>
+        <v>22.08474650164523</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>img163_4.jpg</t>
+          <t>img158_3.jpg</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>309.1074882564244</v>
+        <v>236.4834831051762</v>
       </c>
       <c r="D147" t="n">
-        <v>8609.942064392952</v>
+        <v>8032.388848917371</v>
       </c>
       <c r="E147" t="n">
-        <v>1.909843462682272</v>
+        <v>2.644465119590981</v>
       </c>
       <c r="F147" t="n">
-        <v>6.195007657728468</v>
+        <v>8.211925459333781</v>
       </c>
       <c r="G147" t="n">
-        <v>1265540214</v>
+        <v>131657656</v>
       </c>
       <c r="H147" t="n">
-        <v>21.97975205449616</v>
+        <v>21.74762005390545</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>img241_1.jpg</t>
+          <t>img254_2.jpg</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>428.9305434308162</v>
+        <v>350.070244614823</v>
       </c>
       <c r="D148" t="n">
-        <v>11175.33356510486</v>
+        <v>8893.980650533364</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9399862143196804</v>
+        <v>1.184120941718636</v>
       </c>
       <c r="F148" t="n">
-        <v>5.948693879351238</v>
+        <v>6.542892657149364</v>
       </c>
       <c r="G148" t="n">
-        <v>20665250</v>
+        <v>12729052</v>
       </c>
       <c r="H148" t="n">
-        <v>23.17590086931173</v>
+        <v>22.84909722857563</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>img56_2.jpg</t>
+          <t>img45_3.jpg</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>566.5101799478107</v>
+        <v>329.6695691039415</v>
       </c>
       <c r="D149" t="n">
-        <v>11046.46564594883</v>
+        <v>12149.56842132385</v>
       </c>
       <c r="E149" t="n">
-        <v>-2.177918988936846</v>
+        <v>0.5342203775916404</v>
       </c>
       <c r="F149" t="n">
-        <v>8.077629470595406</v>
+        <v>5.794755275595127</v>
       </c>
       <c r="G149" t="n">
-        <v>5475240413</v>
+        <v>239782526</v>
       </c>
       <c r="H149" t="n">
-        <v>22.15216570010585</v>
+        <v>23.05605700893547</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>img274_3.jpg</t>
+          <t>2023-09-13&amp;40_2.jpg</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>421.3658129579917</v>
+        <v>378.7154590707964</v>
       </c>
       <c r="D150" t="n">
-        <v>4782.412437041934</v>
+        <v>8143.155857718893</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.1506449607408022</v>
+        <v>-0.7387393688377117</v>
       </c>
       <c r="F150" t="n">
-        <v>7.73318690673366</v>
+        <v>7.025619382941607</v>
       </c>
       <c r="G150" t="n">
-        <v>4428317</v>
+        <v>56663727458</v>
       </c>
       <c r="H150" t="n">
-        <v>21.66309082043068</v>
+        <v>22.9288948379318</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>img257_3.jpg</t>
+          <t>img269_3.jpg</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>426.6233102441142</v>
+        <v>211.1253094509975</v>
       </c>
       <c r="D151" t="n">
-        <v>5977.29675174114</v>
+        <v>2470.382739466494</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.485369154636255</v>
+        <v>1.947516527896746</v>
       </c>
       <c r="F151" t="n">
-        <v>8.159260067943265</v>
+        <v>6.8663967488962</v>
       </c>
       <c r="G151" t="n">
-        <v>237015206</v>
+        <v>8457860</v>
       </c>
       <c r="H151" t="n">
-        <v>21.99313492365128</v>
+        <v>19.16787505084007</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>img291_3.jpg</t>
+          <t>img153_3.jpg</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>307.6503448275862</v>
+        <v>369.5295509021619</v>
       </c>
       <c r="D152" t="n">
-        <v>5106.123479994055</v>
+        <v>12874.57181631155</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3417902054738448</v>
+        <v>0.08177206730574485</v>
       </c>
       <c r="F152" t="n">
-        <v>6.196022203064037</v>
+        <v>5.311470778816656</v>
       </c>
       <c r="G152" t="n">
-        <v>3121410</v>
+        <v>1799922438</v>
       </c>
       <c r="H152" t="n">
-        <v>21.47428798666123</v>
+        <v>23.31875291178257</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>img175_3.jpg</t>
+          <t>2023-09-13&amp;32_1.jpg</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>353.6314541910331</v>
+        <v>320.2905258871543</v>
       </c>
       <c r="D153" t="n">
-        <v>6401.665586931273</v>
+        <v>8889.052109771534</v>
       </c>
       <c r="E153" t="n">
-        <v>1.577926042231176</v>
+        <v>0.01942628807545105</v>
       </c>
       <c r="F153" t="n">
-        <v>7.093968998482273</v>
+        <v>7.239128858546382</v>
       </c>
       <c r="G153" t="n">
-        <v>1391405578</v>
+        <v>27228717322</v>
       </c>
       <c r="H153" t="n">
-        <v>22.02159116304999</v>
+        <v>23.06131448157725</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>img8_5.jpg</t>
+          <t>img3_1.jpg</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>425.8649880203318</v>
+        <v>287.9862947783849</v>
       </c>
       <c r="D154" t="n">
-        <v>12365.59765094999</v>
+        <v>10404.20869609298</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.419375352878467</v>
+        <v>0.613328730438689</v>
       </c>
       <c r="F154" t="n">
-        <v>6.028866486342968</v>
+        <v>7.851277867680656</v>
       </c>
       <c r="G154" t="n">
-        <v>10162439238</v>
+        <v>8421735294</v>
       </c>
       <c r="H154" t="n">
-        <v>23.1979986828401</v>
+        <v>22.40957346082664</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>img43_2.jpg</t>
+          <t>img70_4.jpg</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>362.6424244569394</v>
+        <v>554.1584618874773</v>
       </c>
       <c r="D155" t="n">
-        <v>12335.78562404829</v>
+        <v>10122.96830231853</v>
       </c>
       <c r="E155" t="n">
-        <v>0.7842066214069758</v>
+        <v>-3.862726049713145</v>
       </c>
       <c r="F155" t="n">
-        <v>6.311674420109766</v>
+        <v>11.49652874058003</v>
       </c>
       <c r="G155" t="n">
-        <v>635825756</v>
+        <v>975670362</v>
       </c>
       <c r="H155" t="n">
-        <v>23.11433415993908</v>
+        <v>21.71368543149562</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;970_1.jpg</t>
+          <t>img172_4.jpg</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>370.1906608503006</v>
+        <v>411.072058729982</v>
       </c>
       <c r="D156" t="n">
-        <v>11735.66108961808</v>
+        <v>11775.77031180433</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1022316263923668</v>
+        <v>-0.9601118746391154</v>
       </c>
       <c r="F156" t="n">
-        <v>6.20346417678854</v>
+        <v>5.21389826580446</v>
       </c>
       <c r="G156" t="n">
-        <v>18969275254</v>
+        <v>4363457342</v>
       </c>
       <c r="H156" t="n">
-        <v>23.64278084842823</v>
+        <v>22.91071316003931</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>img76_4.jpg</t>
+          <t>img273_2.jpg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>405.041329679956</v>
+        <v>389.2054869684499</v>
       </c>
       <c r="D157" t="n">
-        <v>15547.49952669102</v>
+        <v>6265.443043990302</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7303106611498731</v>
+        <v>-0.5467281060010327</v>
       </c>
       <c r="F157" t="n">
-        <v>5.358912335943234</v>
+        <v>7.9303149114987</v>
       </c>
       <c r="G157" t="n">
-        <v>590441092</v>
+        <v>16813644</v>
       </c>
       <c r="H157" t="n">
-        <v>23.54653949573036</v>
+        <v>22.35268210818808</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>img16_2.jpg</t>
+          <t>img265_2.jpg</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>324.5884485919113</v>
+        <v>390.2450991312096</v>
       </c>
       <c r="D158" t="n">
-        <v>9565.962051518612</v>
+        <v>4517.119993904433</v>
       </c>
       <c r="E158" t="n">
-        <v>1.2394338675324</v>
+        <v>0.07290016591278314</v>
       </c>
       <c r="F158" t="n">
-        <v>7.792947286237974</v>
+        <v>7.812395379114866</v>
       </c>
       <c r="G158" t="n">
-        <v>8245896552</v>
+        <v>30959524</v>
       </c>
       <c r="H158" t="n">
-        <v>22.69403676450776</v>
+        <v>21.63381067002245</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>img229_2.jpg</t>
+          <t>img80_4.jpg</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>296.346422608373</v>
+        <v>427.1071973503033</v>
       </c>
       <c r="D159" t="n">
-        <v>10476.8805880122</v>
+        <v>14508.5448735355</v>
       </c>
       <c r="E159" t="n">
-        <v>1.762053246057299</v>
+        <v>-1.457286983609575</v>
       </c>
       <c r="F159" t="n">
-        <v>6.788253422354437</v>
+        <v>6.215563778461759</v>
       </c>
       <c r="G159" t="n">
-        <v>5413589</v>
+        <v>1186109552</v>
       </c>
       <c r="H159" t="n">
-        <v>22.51463274086746</v>
+        <v>23.17971664300499</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>img242_2.jpg</t>
+          <t>img62_4.jpg</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>323.0081553237291</v>
+        <v>545.8508422229381</v>
       </c>
       <c r="D160" t="n">
-        <v>9005.922817450084</v>
+        <v>8882.055489599257</v>
       </c>
       <c r="E160" t="n">
-        <v>1.367893661193926</v>
+        <v>-3.473121711209209</v>
       </c>
       <c r="F160" t="n">
-        <v>6.781052433582774</v>
+        <v>10.34111073831236</v>
       </c>
       <c r="G160" t="n">
-        <v>10944276</v>
+        <v>7579731132</v>
       </c>
       <c r="H160" t="n">
-        <v>22.63925110055916</v>
+        <v>21.88470779978167</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>img264_2.jpg</t>
+          <t>img271_2.jpg</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>531.2714972527473</v>
+        <v>207.0086008479709</v>
       </c>
       <c r="D161" t="n">
-        <v>8102.312901868527</v>
+        <v>3881.930946477752</v>
       </c>
       <c r="E161" t="n">
-        <v>-2.224540466582304</v>
+        <v>1.176016357965928</v>
       </c>
       <c r="F161" t="n">
-        <v>8.260011015939741</v>
+        <v>8.048511889230598</v>
       </c>
       <c r="G161" t="n">
-        <v>46481666</v>
+        <v>7256008</v>
       </c>
       <c r="H161" t="n">
-        <v>22.11269677306601</v>
+        <v>20.99939812915795</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>img152_3.jpg</t>
+          <t>img40_1.jpg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>512.075386019455</v>
+        <v>269.521357874631</v>
       </c>
       <c r="D162" t="n">
-        <v>8921.036664612664</v>
+        <v>7870.849897871563</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.8911945017470886</v>
+        <v>1.084344760355687</v>
       </c>
       <c r="F162" t="n">
-        <v>7.45641273223461</v>
+        <v>8.258092860219531</v>
       </c>
       <c r="G162" t="n">
-        <v>376794289</v>
+        <v>613649582</v>
       </c>
       <c r="H162" t="n">
-        <v>22.4351869933107</v>
+        <v>22.34869129865988</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>img224_2.jpg</t>
+          <t>2023-09-13&amp;33_1.jpg</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>472.7534436321662</v>
+        <v>266.4360448349974</v>
       </c>
       <c r="D163" t="n">
-        <v>8313.947601714692</v>
+        <v>10976.73377947099</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.777036500217173</v>
+        <v>1.934428150522431</v>
       </c>
       <c r="F163" t="n">
-        <v>7.864426663402475</v>
+        <v>7.865426178462739</v>
       </c>
       <c r="G163" t="n">
-        <v>13528736</v>
+        <v>20415251312</v>
       </c>
       <c r="H163" t="n">
-        <v>22.49662652483248</v>
+        <v>22.9208235289306</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>img270_2.jpg</t>
+          <t>img90_4.jpg</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>430.315651413582</v>
+        <v>444.5933591178407</v>
       </c>
       <c r="D164" t="n">
-        <v>7573.359339397055</v>
+        <v>10778.70126113586</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.4468109147253996</v>
+        <v>-1.757425399579819</v>
       </c>
       <c r="F164" t="n">
-        <v>6.680679145749091</v>
+        <v>6.530398109065917</v>
       </c>
       <c r="G164" t="n">
-        <v>873070</v>
+        <v>390670870</v>
       </c>
       <c r="H164" t="n">
-        <v>22.51264851753203</v>
+        <v>22.76090638907807</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>img143_4.jpg</t>
+          <t>img270_2.jpg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>423.8496883336754</v>
+        <v>369.958029728942</v>
       </c>
       <c r="D165" t="n">
-        <v>11018.48303746333</v>
+        <v>7573.359339397055</v>
       </c>
       <c r="E165" t="n">
-        <v>0.02874696954713966</v>
+        <v>-0.4468109147253996</v>
       </c>
       <c r="F165" t="n">
-        <v>5.124849887319707</v>
+        <v>6.680679145749091</v>
       </c>
       <c r="G165" t="n">
-        <v>411832920</v>
+        <v>873070</v>
       </c>
       <c r="H165" t="n">
-        <v>22.80646099622004</v>
+        <v>22.51264851753203</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>img137_1.jpg</t>
+          <t>2023-09-13&amp;29_1.jpg</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>413.6535063272847</v>
+        <v>224.6368272628937</v>
       </c>
       <c r="D166" t="n">
-        <v>9255.778691053763</v>
+        <v>12882.21529535971</v>
       </c>
       <c r="E166" t="n">
-        <v>0.4447253606491003</v>
+        <v>2.50759215038085</v>
       </c>
       <c r="F166" t="n">
-        <v>7.230099785576035</v>
+        <v>7.358613141862353</v>
       </c>
       <c r="G166" t="n">
-        <v>594394154</v>
+        <v>122865789033</v>
       </c>
       <c r="H166" t="n">
-        <v>23.06263018117322</v>
+        <v>22.47388903850755</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>img45_3.jpg</t>
+          <t>img106_3.jpg</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>366.282250989091</v>
+        <v>329.2945151893467</v>
       </c>
       <c r="D167" t="n">
-        <v>12149.56842132385</v>
+        <v>7654.527155100375</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5342203775916404</v>
+        <v>2.204171026033486</v>
       </c>
       <c r="F167" t="n">
-        <v>5.794755275595127</v>
+        <v>7.874406869335161</v>
       </c>
       <c r="G167" t="n">
-        <v>239782526</v>
+        <v>338952688</v>
       </c>
       <c r="H167" t="n">
-        <v>23.05605700893547</v>
+        <v>22.00403246822648</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>img256_2.jpg</t>
+          <t>2023-09-13&amp;1105_2.jpg</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>529.7613373586845</v>
+        <v>316.4977617592778</v>
       </c>
       <c r="D168" t="n">
-        <v>6905.544062409763</v>
+        <v>16787.0737076958</v>
       </c>
       <c r="E168" t="n">
-        <v>-2.015816728881581</v>
+        <v>1.511285460217622</v>
       </c>
       <c r="F168" t="n">
-        <v>7.811728808071322</v>
+        <v>5.391074108078815</v>
       </c>
       <c r="G168" t="n">
-        <v>23154514</v>
+        <v>30381439143</v>
       </c>
       <c r="H168" t="n">
-        <v>21.98081628832453</v>
+        <v>22.72560715487124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>img285_3.jpg</t>
+          <t>img37_4.jpg</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>310.4199692416893</v>
+        <v>442.0473640332905</v>
       </c>
       <c r="D169" t="n">
-        <v>6546.255373020094</v>
+        <v>14430.50098631557</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.03736794345369405</v>
+        <v>-0.97472571799883</v>
       </c>
       <c r="F169" t="n">
-        <v>6.596017377310246</v>
+        <v>5.878262730348333</v>
       </c>
       <c r="G169" t="n">
-        <v>12077161</v>
+        <v>444900210</v>
       </c>
       <c r="H169" t="n">
-        <v>22.35071884393081</v>
+        <v>23.2503146706724</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>img261_3.jpg</t>
+          <t>img65_2.jpg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>394.1422987296099</v>
+        <v>530.8323136818688</v>
       </c>
       <c r="D170" t="n">
-        <v>8406.245876426583</v>
+        <v>9928.527915145009</v>
       </c>
       <c r="E170" t="n">
-        <v>-1.080414457572325</v>
+        <v>-1.8332087000166</v>
       </c>
       <c r="F170" t="n">
-        <v>7.616736611774269</v>
+        <v>7.33004375519538</v>
       </c>
       <c r="G170" t="n">
-        <v>14651820</v>
+        <v>530651250</v>
       </c>
       <c r="H170" t="n">
-        <v>22.43321147509281</v>
+        <v>22.21026967648469</v>
       </c>
     </row>
     <row r="171">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>488.7725693354265</v>
+        <v>451.0158660387232</v>
       </c>
       <c r="D171" t="n">
         <v>11014.33625855609</v>
@@ -5238,729 +5238,729 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>img271_2.jpg</t>
+          <t>img43_2.jpg</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>232.7900666262871</v>
+        <v>316.1332773755107</v>
       </c>
       <c r="D172" t="n">
-        <v>3881.930946477752</v>
+        <v>12335.78562404829</v>
       </c>
       <c r="E172" t="n">
-        <v>1.176016357965928</v>
+        <v>0.7842066214069758</v>
       </c>
       <c r="F172" t="n">
-        <v>8.048511889230598</v>
+        <v>6.311674420109766</v>
       </c>
       <c r="G172" t="n">
-        <v>7256008</v>
+        <v>635825756</v>
       </c>
       <c r="H172" t="n">
-        <v>20.99939812915795</v>
+        <v>23.11433415993908</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;36_2.jpg</t>
+          <t>img279_2.jpg</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>319.1593745528904</v>
+        <v>340.5915294117647</v>
       </c>
       <c r="D173" t="n">
-        <v>11757.42588125151</v>
+        <v>5722.595085397925</v>
       </c>
       <c r="E173" t="n">
-        <v>0.658368323013286</v>
+        <v>-0.6513031285059819</v>
       </c>
       <c r="F173" t="n">
-        <v>6.431853796044114</v>
+        <v>6.830259954813347</v>
       </c>
       <c r="G173" t="n">
-        <v>85933647401</v>
+        <v>1552374</v>
       </c>
       <c r="H173" t="n">
-        <v>23.41123563613526</v>
+        <v>21.94746913532182</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>img280_3.jpg</t>
+          <t>img171_3.jpg</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>279.6511986997156</v>
+        <v>309.3372037399434</v>
       </c>
       <c r="D174" t="n">
-        <v>4877.735783470411</v>
+        <v>9954.573831948503</v>
       </c>
       <c r="E174" t="n">
-        <v>3.330045860975615</v>
+        <v>1.63889810831834</v>
       </c>
       <c r="F174" t="n">
-        <v>14.90620456784004</v>
+        <v>6.996261974710206</v>
       </c>
       <c r="G174" t="n">
-        <v>4036961</v>
+        <v>495078275</v>
       </c>
       <c r="H174" t="n">
-        <v>21.26991004115074</v>
+        <v>22.54251961230604</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>img260_3.jpg</t>
+          <t>img91_5.jpg</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>446.7553575350632</v>
+        <v>446.7197041984733</v>
       </c>
       <c r="D175" t="n">
-        <v>6405.769137384799</v>
+        <v>15590.477029953</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.7833861478864101</v>
+        <v>-1.427753810844616</v>
       </c>
       <c r="F175" t="n">
-        <v>7.489138719696114</v>
+        <v>5.294760026090919</v>
       </c>
       <c r="G175" t="n">
-        <v>21139915</v>
+        <v>954469526</v>
       </c>
       <c r="H175" t="n">
-        <v>22.24172582459815</v>
+        <v>23.02892265287649</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>img290_3.jpg</t>
+          <t>img234_1.jpg</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>400.1197055264219</v>
+        <v>293.3873207885305</v>
       </c>
       <c r="D176" t="n">
-        <v>12395.99968146102</v>
+        <v>3260.660983866886</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.1702612172488437</v>
+        <v>0.7171779990908341</v>
       </c>
       <c r="F176" t="n">
-        <v>5.307173826281863</v>
+        <v>9.498219625078519</v>
       </c>
       <c r="G176" t="n">
-        <v>5652144</v>
+        <v>20276568</v>
       </c>
       <c r="H176" t="n">
-        <v>23.34329124896997</v>
+        <v>20.79103065633651</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>img287_3.jpg</t>
+          <t>img78_4.jpg</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>458.6861820412545</v>
+        <v>451.6326201259826</v>
       </c>
       <c r="D177" t="n">
-        <v>6732.404408175002</v>
+        <v>14096.19326590075</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.237912891114624</v>
+        <v>-1.175579443091144</v>
       </c>
       <c r="F177" t="n">
-        <v>6.587654938446859</v>
+        <v>5.747829574467537</v>
       </c>
       <c r="G177" t="n">
-        <v>14228150</v>
+        <v>296971711</v>
       </c>
       <c r="H177" t="n">
-        <v>22.05999409425579</v>
+        <v>23.19827202814898</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;32_1.jpg</t>
+          <t>img235_1.jpg</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>343.8566400078086</v>
+        <v>488.0684623590369</v>
       </c>
       <c r="D178" t="n">
-        <v>8889.052109771534</v>
+        <v>8953.686111499992</v>
       </c>
       <c r="E178" t="n">
-        <v>0.01942628807545105</v>
+        <v>-1.468885066366681</v>
       </c>
       <c r="F178" t="n">
-        <v>7.239128858546382</v>
+        <v>7.460772072430872</v>
       </c>
       <c r="G178" t="n">
-        <v>27228717322</v>
+        <v>48908890</v>
       </c>
       <c r="H178" t="n">
-        <v>23.06131448157725</v>
+        <v>22.83113884149109</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>img18_2.jpg</t>
+          <t>img13_3.jpg</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>399.135960605626</v>
+        <v>335.2229197701639</v>
       </c>
       <c r="D179" t="n">
-        <v>14135.78349076137</v>
+        <v>12832.49828070711</v>
       </c>
       <c r="E179" t="n">
-        <v>0.334952041535615</v>
+        <v>1.094631281699333</v>
       </c>
       <c r="F179" t="n">
-        <v>5.378657204238415</v>
+        <v>5.841030333499372</v>
       </c>
       <c r="G179" t="n">
-        <v>4760670700</v>
+        <v>7665283016</v>
       </c>
       <c r="H179" t="n">
-        <v>23.17820872172538</v>
+        <v>23.45777030746414</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>img82_4.jpg</t>
+          <t>img151_2.jpg</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>530.8204563424828</v>
+        <v>369.263015523633</v>
       </c>
       <c r="D180" t="n">
-        <v>14686.03882803588</v>
+        <v>10763.68845121357</v>
       </c>
       <c r="E180" t="n">
-        <v>-1.927784750018477</v>
+        <v>0.8276623272872841</v>
       </c>
       <c r="F180" t="n">
-        <v>6.679229240180122</v>
+        <v>6.404821401744048</v>
       </c>
       <c r="G180" t="n">
-        <v>1198270738</v>
+        <v>470425116</v>
       </c>
       <c r="H180" t="n">
-        <v>22.71682143960221</v>
+        <v>23.1358162468266</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>img293_3.jpg</t>
+          <t>img149_2.jpg</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>139.9866038433112</v>
+        <v>309.3838204098445</v>
       </c>
       <c r="D181" t="n">
-        <v>1431.913072021046</v>
+        <v>7596.179190871417</v>
       </c>
       <c r="E181" t="n">
-        <v>2.668670262601033</v>
+        <v>0.9310488266586572</v>
       </c>
       <c r="F181" t="n">
-        <v>12.74040364452027</v>
+        <v>6.696276805016966</v>
       </c>
       <c r="G181" t="n">
-        <v>5478830</v>
+        <v>1036540297</v>
       </c>
       <c r="H181" t="n">
-        <v>18.79768516753903</v>
+        <v>22.61110673775385</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>img108_2.jpg</t>
+          <t>img282_4.jpg</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>570.8453219125488</v>
+        <v>487.658456185331</v>
       </c>
       <c r="D182" t="n">
-        <v>5233.514281259918</v>
+        <v>12603.75253452006</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.759588865729361</v>
+        <v>-1.596156974881309</v>
       </c>
       <c r="F182" t="n">
-        <v>8.830730919274041</v>
+        <v>6.390096297157151</v>
       </c>
       <c r="G182" t="n">
-        <v>209210089</v>
+        <v>8028592</v>
       </c>
       <c r="H182" t="n">
-        <v>21.70221779552525</v>
+        <v>23.03801930661916</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>img235_1.jpg</t>
+          <t>img109_2.jpg</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>497.0469178604084</v>
+        <v>261.2729054691865</v>
       </c>
       <c r="D183" t="n">
-        <v>8953.686111499992</v>
+        <v>6198.439016901031</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.468885066366681</v>
+        <v>3.624705525672417</v>
       </c>
       <c r="F183" t="n">
-        <v>7.460772072430872</v>
+        <v>11.44439778351453</v>
       </c>
       <c r="G183" t="n">
-        <v>48908890</v>
+        <v>1488680416</v>
       </c>
       <c r="H183" t="n">
-        <v>22.83113884149109</v>
+        <v>21.00331478254959</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>img250_2.jpg</t>
+          <t>img31_3.jpg</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>451.9878947368421</v>
+        <v>458.2722615615992</v>
       </c>
       <c r="D184" t="n">
-        <v>6359.03096098543</v>
+        <v>11282.72532940826</v>
       </c>
       <c r="E184" t="n">
-        <v>-0.9975302046830874</v>
+        <v>-1.135662350166244</v>
       </c>
       <c r="F184" t="n">
-        <v>7.016060518387248</v>
+        <v>7.150239257340305</v>
       </c>
       <c r="G184" t="n">
-        <v>23484350</v>
+        <v>598470268</v>
       </c>
       <c r="H184" t="n">
-        <v>22.26315984270123</v>
+        <v>23.25732812237608</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>img252_3.jpg</t>
+          <t>img58_2.jpg</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>430.5216869693614</v>
+        <v>449.3731843821611</v>
       </c>
       <c r="D185" t="n">
-        <v>7857.76808077754</v>
+        <v>8630.456669621903</v>
       </c>
       <c r="E185" t="n">
-        <v>0.2657907772597851</v>
+        <v>-1.256873146287753</v>
       </c>
       <c r="F185" t="n">
-        <v>6.675835533708791</v>
+        <v>8.267500283577332</v>
       </c>
       <c r="G185" t="n">
-        <v>33897912</v>
+        <v>972821538</v>
       </c>
       <c r="H185" t="n">
-        <v>22.63949093395443</v>
+        <v>22.68479618720069</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>img288_2.jpg</t>
+          <t>img96_4.jpg</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>511.0616100766703</v>
+        <v>367.6494763437793</v>
       </c>
       <c r="D186" t="n">
-        <v>6946.21794356556</v>
+        <v>10336.96847272856</v>
       </c>
       <c r="E186" t="n">
-        <v>-1.008859756654196</v>
+        <v>-0.680937958346614</v>
       </c>
       <c r="F186" t="n">
-        <v>7.031612486637626</v>
+        <v>5.469019086070934</v>
       </c>
       <c r="G186" t="n">
-        <v>4232954</v>
+        <v>362938084</v>
       </c>
       <c r="H186" t="n">
-        <v>22.31994722182177</v>
+        <v>22.84036114892143</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>img1_4.jpg</t>
+          <t>img52_3.jpg</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>453.0527570723799</v>
+        <v>426.9163377010492</v>
       </c>
       <c r="D187" t="n">
-        <v>12072.08034229458</v>
+        <v>11796.46482957647</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.9024233614965309</v>
+        <v>-1.013734953774398</v>
       </c>
       <c r="F187" t="n">
-        <v>5.688662865359454</v>
+        <v>6.387630008346254</v>
       </c>
       <c r="G187" t="n">
-        <v>6575976548</v>
+        <v>4748300735</v>
       </c>
       <c r="H187" t="n">
-        <v>23.08504863056718</v>
+        <v>23.2144769771111</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>img292_3.jpg</t>
+          <t>img5_4.jpg</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>422.9445362934971</v>
+        <v>397.5152255683726</v>
       </c>
       <c r="D188" t="n">
-        <v>14888.88874470807</v>
+        <v>13724.05844101386</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.06742418695432117</v>
+        <v>-0.4214946105330383</v>
       </c>
       <c r="F188" t="n">
-        <v>5.628976617129417</v>
+        <v>5.217583820844552</v>
       </c>
       <c r="G188" t="n">
-        <v>9778514</v>
+        <v>5499896834</v>
       </c>
       <c r="H188" t="n">
-        <v>23.42282743751659</v>
+        <v>23.28880175420117</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>img162_4.jpg</t>
+          <t>img15_4.jpg</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>245.9691576911408</v>
+        <v>387.3241888765255</v>
       </c>
       <c r="D189" t="n">
-        <v>7865.707503230579</v>
+        <v>14655.53382121429</v>
       </c>
       <c r="E189" t="n">
-        <v>2.810197831641974</v>
+        <v>0.7204702507400895</v>
       </c>
       <c r="F189" t="n">
-        <v>8.9996088142681</v>
+        <v>4.58607033514973</v>
       </c>
       <c r="G189" t="n">
-        <v>994410116</v>
+        <v>21609982664</v>
       </c>
       <c r="H189" t="n">
-        <v>22.1406914723166</v>
+        <v>22.94692833287408</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>img19_3.jpg</t>
+          <t>img148_4.jpg</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>364.4071664852789</v>
+        <v>416.3494716068245</v>
       </c>
       <c r="D190" t="n">
-        <v>13200.82782185821</v>
+        <v>8073.607345947032</v>
       </c>
       <c r="E190" t="n">
-        <v>0.6109123353476291</v>
+        <v>-1.246943816837473</v>
       </c>
       <c r="F190" t="n">
-        <v>5.056117386079332</v>
+        <v>7.198662471264724</v>
       </c>
       <c r="G190" t="n">
-        <v>10575983268</v>
+        <v>301342094</v>
       </c>
       <c r="H190" t="n">
-        <v>23.24851699122017</v>
+        <v>22.51332306386936</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>img232_2.jpg</t>
+          <t>img231_3.jpg</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>317.2013094467228</v>
+        <v>298.8584482758621</v>
       </c>
       <c r="D191" t="n">
-        <v>6892.69266743679</v>
+        <v>8626.067237201083</v>
       </c>
       <c r="E191" t="n">
-        <v>1.201483285235981</v>
+        <v>0.4137069125163323</v>
       </c>
       <c r="F191" t="n">
-        <v>8.233219501410415</v>
+        <v>6.843846940051076</v>
       </c>
       <c r="G191" t="n">
-        <v>4213431</v>
+        <v>5422384</v>
       </c>
       <c r="H191" t="n">
-        <v>21.99783582126049</v>
+        <v>22.69663304101059</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>img59_2.jpg</t>
+          <t>img286_3.jpg</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>414.0571982873963</v>
+        <v>353.3826047542304</v>
       </c>
       <c r="D192" t="n">
-        <v>10015.68135127468</v>
+        <v>9709.726771886815</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.01319014185740119</v>
+        <v>-0.001718679404324214</v>
       </c>
       <c r="F192" t="n">
-        <v>6.551219256341445</v>
+        <v>5.916989084027686</v>
       </c>
       <c r="G192" t="n">
-        <v>231038420</v>
+        <v>6346416</v>
       </c>
       <c r="H192" t="n">
-        <v>23.04516996108021</v>
+        <v>22.92388092040216</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>img17_4.jpg</t>
+          <t>img285_3.jpg</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>334.0358198517159</v>
+        <v>303.2562798217596</v>
       </c>
       <c r="D193" t="n">
-        <v>11926.78931010041</v>
+        <v>6546.255373020094</v>
       </c>
       <c r="E193" t="n">
-        <v>1.49238196881144</v>
+        <v>-0.03736794345369405</v>
       </c>
       <c r="F193" t="n">
-        <v>5.900080723755996</v>
+        <v>6.596017377310246</v>
       </c>
       <c r="G193" t="n">
-        <v>9418953330</v>
+        <v>12077161</v>
       </c>
       <c r="H193" t="n">
-        <v>22.82866582908056</v>
+        <v>22.35071884393081</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>img89_5.jpg</t>
+          <t>img252_3.jpg</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>467.3429595309852</v>
+        <v>387.2779854189738</v>
       </c>
       <c r="D194" t="n">
-        <v>16603.67007185366</v>
+        <v>7857.76808077754</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.7121305169417699</v>
+        <v>0.2657907772597851</v>
       </c>
       <c r="F194" t="n">
-        <v>4.42574353628199</v>
+        <v>6.675835533708791</v>
       </c>
       <c r="G194" t="n">
-        <v>730565305</v>
+        <v>33897912</v>
       </c>
       <c r="H194" t="n">
-        <v>22.92669882190115</v>
+        <v>22.63949093395443</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>img233_2.jpg</t>
+          <t>img223_2.jpg</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>309.8886347642505</v>
+        <v>406.5156477051214</v>
       </c>
       <c r="D195" t="n">
-        <v>8530.629895016866</v>
+        <v>7721.755321227924</v>
       </c>
       <c r="E195" t="n">
-        <v>1.268131286193264</v>
+        <v>-1.7168914847437</v>
       </c>
       <c r="F195" t="n">
-        <v>7.316595714753742</v>
+        <v>8.187591150572256</v>
       </c>
       <c r="G195" t="n">
-        <v>2375994</v>
+        <v>17039415</v>
       </c>
       <c r="H195" t="n">
-        <v>22.60953117623367</v>
+        <v>22.37045703284926</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>img93_5.jpg</t>
+          <t>img163_4.jpg</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>471.6406763253497</v>
+        <v>296.8699665904695</v>
       </c>
       <c r="D196" t="n">
-        <v>15001.6539189226</v>
+        <v>8609.942064392952</v>
       </c>
       <c r="E196" t="n">
-        <v>-1.200703268103573</v>
+        <v>1.909843462682272</v>
       </c>
       <c r="F196" t="n">
-        <v>4.898912276013005</v>
+        <v>6.195007657728468</v>
       </c>
       <c r="G196" t="n">
-        <v>637753410</v>
+        <v>1265540214</v>
       </c>
       <c r="H196" t="n">
-        <v>22.82824272839258</v>
+        <v>21.97975205449616</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;27_1.jpg</t>
+          <t>img135_3.jpg</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>209.6702530001523</v>
+        <v>247.7296361863167</v>
       </c>
       <c r="D197" t="n">
-        <v>10858.79437090987</v>
+        <v>1919.149399721593</v>
       </c>
       <c r="E197" t="n">
-        <v>2.885631540183569</v>
+        <v>1.922783854357881</v>
       </c>
       <c r="F197" t="n">
-        <v>7.848976934231579</v>
+        <v>9.413860671916733</v>
       </c>
       <c r="G197" t="n">
-        <v>68884955229</v>
+        <v>1467683642</v>
       </c>
       <c r="H197" t="n">
-        <v>21.33475536775537</v>
+        <v>19.33005823898918</v>
       </c>
     </row>
     <row r="198">
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>326.4894441361055</v>
+        <v>300.5907340600644</v>
       </c>
       <c r="D198" t="n">
         <v>6485.88891548471</v>
@@ -5994,1569 +5994,1569 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>img249_3.jpg</t>
+          <t>img245_2.jpg</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>197.2156893203883</v>
+        <v>267.7492623814542</v>
       </c>
       <c r="D199" t="n">
-        <v>6734.684585480252</v>
+        <v>8723.710755637068</v>
       </c>
       <c r="E199" t="n">
-        <v>1.806334852808672</v>
+        <v>0.9559154226538052</v>
       </c>
       <c r="F199" t="n">
-        <v>7.133155615224484</v>
+        <v>6.935846966826135</v>
       </c>
       <c r="G199" t="n">
-        <v>4490093</v>
+        <v>7667896</v>
       </c>
       <c r="H199" t="n">
-        <v>21.36109079068399</v>
+        <v>22.30638822136135</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>img127_2.jpg</t>
+          <t>img237_2.jpg</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>549.835896076352</v>
+        <v>203.9527649769585</v>
       </c>
       <c r="D200" t="n">
-        <v>13825.02060460568</v>
+        <v>5779.362518722241</v>
       </c>
       <c r="E200" t="n">
-        <v>-2.206279626491559</v>
+        <v>2.122573359401504</v>
       </c>
       <c r="F200" t="n">
-        <v>6.665703698139109</v>
+        <v>7.959339836566451</v>
       </c>
       <c r="G200" t="n">
-        <v>695114</v>
+        <v>2238820</v>
       </c>
       <c r="H200" t="n">
-        <v>21.84306612463662</v>
+        <v>21.54460885522779</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>img94_2.jpg</t>
+          <t>img140_3.jpg</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>448.8683783783785</v>
+        <v>411.4317858987603</v>
       </c>
       <c r="D201" t="n">
-        <v>8585.9342853421</v>
+        <v>8078.981698932062</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.7252254013372237</v>
+        <v>0.3774772034794514</v>
       </c>
       <c r="F201" t="n">
-        <v>6.586144747650692</v>
+        <v>6.91129034680336</v>
       </c>
       <c r="G201" t="n">
-        <v>2021538</v>
+        <v>422843736</v>
       </c>
       <c r="H201" t="n">
-        <v>22.9239035934855</v>
+        <v>22.55846545003395</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>img243_1.jpg</t>
+          <t>img114_3.jpg</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>409.3507246376812</v>
+        <v>400.2051610372831</v>
       </c>
       <c r="D202" t="n">
-        <v>5755.138608254568</v>
+        <v>8731.624338800326</v>
       </c>
       <c r="E202" t="n">
-        <v>1.006548078188419</v>
+        <v>0.3676280611575821</v>
       </c>
       <c r="F202" t="n">
-        <v>7.834056912716473</v>
+        <v>5.370116772657484</v>
       </c>
       <c r="G202" t="n">
-        <v>34678822</v>
+        <v>628797678</v>
       </c>
       <c r="H202" t="n">
-        <v>22.18186481195307</v>
+        <v>22.14491942703263</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>img246_2.jpg</t>
+          <t>img292_3.jpg</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>428.5300904977375</v>
+        <v>402.3492757046134</v>
       </c>
       <c r="D203" t="n">
-        <v>13695.28591097819</v>
+        <v>14888.88874470807</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.4889571324415529</v>
+        <v>-0.06742418695432117</v>
       </c>
       <c r="F203" t="n">
-        <v>5.190533855732146</v>
+        <v>5.628976617129417</v>
       </c>
       <c r="G203" t="n">
-        <v>19444978</v>
+        <v>9778514</v>
       </c>
       <c r="H203" t="n">
-        <v>23.24266001674282</v>
+        <v>23.42282743751659</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>img97_4.jpg</t>
+          <t>img250_2.jpg</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>502.3200459167606</v>
+        <v>421.8266374269006</v>
       </c>
       <c r="D204" t="n">
-        <v>12613.7777377018</v>
+        <v>6359.03096098543</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.321741815474145</v>
+        <v>-0.9975302046830874</v>
       </c>
       <c r="F204" t="n">
-        <v>7.205597433362048</v>
+        <v>7.016060518387248</v>
       </c>
       <c r="G204" t="n">
-        <v>859370676</v>
+        <v>23484350</v>
       </c>
       <c r="H204" t="n">
-        <v>22.67891457533146</v>
+        <v>22.26315984270123</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>img174_4.jpg</t>
+          <t>img257_3.jpg</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>428.2339550800077</v>
+        <v>400.6646932291359</v>
       </c>
       <c r="D205" t="n">
-        <v>12793.55601038004</v>
+        <v>5977.29675174114</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.3831911026081389</v>
+        <v>-1.485369154636255</v>
       </c>
       <c r="F205" t="n">
-        <v>5.658922895743946</v>
+        <v>8.159260067943265</v>
       </c>
       <c r="G205" t="n">
-        <v>2442344962</v>
+        <v>237015206</v>
       </c>
       <c r="H205" t="n">
-        <v>23.45963328637648</v>
+        <v>21.99313492365128</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>img144_2.jpg</t>
+          <t>img256_2.jpg</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>442.4159695045266</v>
+        <v>517.9117741521069</v>
       </c>
       <c r="D206" t="n">
-        <v>9775.172134107532</v>
+        <v>6905.544062409763</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.2274396414721084</v>
+        <v>-2.015816728881581</v>
       </c>
       <c r="F206" t="n">
-        <v>6.547034315726113</v>
+        <v>7.811728808071322</v>
       </c>
       <c r="G206" t="n">
-        <v>1012338312</v>
+        <v>23154514</v>
       </c>
       <c r="H206" t="n">
-        <v>23.12060847948854</v>
+        <v>21.98081628832453</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>img266_3.jpg</t>
+          <t>img259_2.jpg</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>406.4774797151846</v>
+        <v>455.2162564827912</v>
       </c>
       <c r="D207" t="n">
-        <v>12376.652750978</v>
+        <v>9047.638957510946</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.3212522124515089</v>
+        <v>-1.096945537611629</v>
       </c>
       <c r="F207" t="n">
-        <v>5.792052887068708</v>
+        <v>7.023271250599731</v>
       </c>
       <c r="G207" t="n">
-        <v>2148498</v>
+        <v>45735823</v>
       </c>
       <c r="H207" t="n">
-        <v>23.31123782751222</v>
+        <v>23.04283418800925</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>img33_4.jpg</t>
+          <t>2023-09-13&amp;20_2.jpg</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>447.5726361422689</v>
+        <v>339.834082863748</v>
       </c>
       <c r="D208" t="n">
-        <v>11754.48964106852</v>
+        <v>5397.897115429039</v>
       </c>
       <c r="E208" t="n">
-        <v>-1.239010740538723</v>
+        <v>0.4925613798006824</v>
       </c>
       <c r="F208" t="n">
-        <v>6.315096680575559</v>
+        <v>8.361871773991659</v>
       </c>
       <c r="G208" t="n">
-        <v>496438799</v>
+        <v>85954488930</v>
       </c>
       <c r="H208" t="n">
-        <v>23.30676359791653</v>
+        <v>22.06908376162003</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>img75_4.jpg</t>
+          <t>img7_1.jpg</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>407.7558281912551</v>
+        <v>363.0307610815496</v>
       </c>
       <c r="D209" t="n">
-        <v>13672.67680324979</v>
+        <v>10509.81624074108</v>
       </c>
       <c r="E209" t="n">
-        <v>0.2354409941968509</v>
+        <v>0.2968714430666661</v>
       </c>
       <c r="F209" t="n">
-        <v>5.421576037352703</v>
+        <v>6.781418468330051</v>
       </c>
       <c r="G209" t="n">
-        <v>365985375</v>
+        <v>2526118442</v>
       </c>
       <c r="H209" t="n">
-        <v>23.6211539657517</v>
+        <v>23.41099307314177</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>img147_2.jpg</t>
+          <t>img17_4.jpg</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>381.3406847842776</v>
+        <v>298.6312401995334</v>
       </c>
       <c r="D210" t="n">
-        <v>12800.55085857541</v>
+        <v>11926.78931010041</v>
       </c>
       <c r="E210" t="n">
-        <v>0.428705294498765</v>
+        <v>1.49238196881144</v>
       </c>
       <c r="F210" t="n">
-        <v>6.126273822298328</v>
+        <v>5.900080723755996</v>
       </c>
       <c r="G210" t="n">
-        <v>1505935692</v>
+        <v>9418953330</v>
       </c>
       <c r="H210" t="n">
-        <v>23.48510017264248</v>
+        <v>22.82866582908056</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>img141_2.jpg</t>
+          <t>img255_1.jpg</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>345.9239733823658</v>
+        <v>360.7444852941176</v>
       </c>
       <c r="D211" t="n">
-        <v>13203.82180079195</v>
+        <v>7341.83359867539</v>
       </c>
       <c r="E211" t="n">
-        <v>1.344692945954846</v>
+        <v>0.7326607621882624</v>
       </c>
       <c r="F211" t="n">
-        <v>6.009833135916419</v>
+        <v>7.312625998535458</v>
       </c>
       <c r="G211" t="n">
-        <v>898825564</v>
+        <v>3285558</v>
       </c>
       <c r="H211" t="n">
-        <v>23.10289599857168</v>
+        <v>22.66510580571555</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>img12_2.jpg</t>
+          <t>img139_3.jpg</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>381.7935036628928</v>
+        <v>301.7008285984849</v>
       </c>
       <c r="D212" t="n">
-        <v>10983.09186369676</v>
+        <v>7595.747284722167</v>
       </c>
       <c r="E212" t="n">
-        <v>0.05220096962171245</v>
+        <v>2.011075436994852</v>
       </c>
       <c r="F212" t="n">
-        <v>6.206205768712245</v>
+        <v>7.912965085510514</v>
       </c>
       <c r="G212" t="n">
-        <v>21188458628</v>
+        <v>562550332</v>
       </c>
       <c r="H212" t="n">
-        <v>23.11707705208603</v>
+        <v>22.36934146255147</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;33_1.jpg</t>
+          <t>2023-09-13&amp;c49_3.jpg</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>269.6761986379012</v>
+        <v>306.4404115391047</v>
       </c>
       <c r="D213" t="n">
-        <v>10976.73377947099</v>
+        <v>8600.420663525716</v>
       </c>
       <c r="E213" t="n">
-        <v>1.934428150522431</v>
+        <v>1.246373599185541</v>
       </c>
       <c r="F213" t="n">
-        <v>7.865426178462739</v>
+        <v>6.766698104616713</v>
       </c>
       <c r="G213" t="n">
-        <v>20415251312</v>
+        <v>36167894886</v>
       </c>
       <c r="H213" t="n">
-        <v>22.9208235289306</v>
+        <v>22.84795168290199</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>img126_1.jpg</t>
+          <t>img146_2.jpg</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>297.073500967118</v>
+        <v>430.4303567496146</v>
       </c>
       <c r="D214" t="n">
-        <v>5942.917950233642</v>
+        <v>10915.8179041711</v>
       </c>
       <c r="E214" t="n">
-        <v>2.671624861049375</v>
+        <v>-0.4026635110429325</v>
       </c>
       <c r="F214" t="n">
-        <v>13.08007764306273</v>
+        <v>5.720037563923189</v>
       </c>
       <c r="G214" t="n">
-        <v>154993</v>
+        <v>471882136</v>
       </c>
       <c r="H214" t="n">
-        <v>21.70878649302315</v>
+        <v>22.83229306995651</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>img253_2.jpg</t>
+          <t>img74_4.jpg</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>512.8194277711084</v>
+        <v>461.5307473062218</v>
       </c>
       <c r="D215" t="n">
-        <v>8270.990431129769</v>
+        <v>16724.30930983739</v>
       </c>
       <c r="E215" t="n">
-        <v>-1.498719440847847</v>
+        <v>-1.695522711189732</v>
       </c>
       <c r="F215" t="n">
-        <v>7.416107343892723</v>
+        <v>5.69927894993517</v>
       </c>
       <c r="G215" t="n">
-        <v>16402872</v>
+        <v>3413024798</v>
       </c>
       <c r="H215" t="n">
-        <v>22.61213937935564</v>
+        <v>22.4033128088744</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>img167_4.jpg</t>
+          <t>img224_2.jpg</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>405.4431626153647</v>
+        <v>440.5610234705656</v>
       </c>
       <c r="D216" t="n">
-        <v>11016.7082161093</v>
+        <v>8313.947601714692</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.06011317782767411</v>
+        <v>-1.777036500217173</v>
       </c>
       <c r="F216" t="n">
-        <v>5.622708790259743</v>
+        <v>7.864426663402475</v>
       </c>
       <c r="G216" t="n">
-        <v>2047866696</v>
+        <v>13528736</v>
       </c>
       <c r="H216" t="n">
-        <v>23.23762755887702</v>
+        <v>22.49662652483248</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>img172_4.jpg</t>
+          <t>img264_2.jpg</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>442.1253260126271</v>
+        <v>521.1276556776558</v>
       </c>
       <c r="D217" t="n">
-        <v>11775.77031180433</v>
+        <v>8102.312901868527</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.9601118746391154</v>
+        <v>-2.224540466582304</v>
       </c>
       <c r="F217" t="n">
-        <v>5.21389826580446</v>
+        <v>8.260011015939741</v>
       </c>
       <c r="G217" t="n">
-        <v>4363457342</v>
+        <v>46481666</v>
       </c>
       <c r="H217" t="n">
-        <v>22.91071316003931</v>
+        <v>22.11269677306601</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>img11_4.jpg</t>
+          <t>img227_4.jpg</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>391.7918608282513</v>
+        <v>517.5347798162576</v>
       </c>
       <c r="D218" t="n">
-        <v>12081.4473742339</v>
+        <v>7836.473744690677</v>
       </c>
       <c r="E218" t="n">
-        <v>0.788883850736377</v>
+        <v>-1.314422582396961</v>
       </c>
       <c r="F218" t="n">
-        <v>6.277767522607476</v>
+        <v>6.769188836125943</v>
       </c>
       <c r="G218" t="n">
-        <v>18969596158</v>
+        <v>24603719</v>
       </c>
       <c r="H218" t="n">
-        <v>23.4217112348324</v>
+        <v>22.44832166337056</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;947_3.jpg</t>
+          <t>img175_3.jpg</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>318.9310145382821</v>
+        <v>325.840955165692</v>
       </c>
       <c r="D219" t="n">
-        <v>10453.17470898951</v>
+        <v>6401.665586931273</v>
       </c>
       <c r="E219" t="n">
-        <v>1.467078230140166</v>
+        <v>1.577926042231176</v>
       </c>
       <c r="F219" t="n">
-        <v>6.780380763798808</v>
+        <v>7.093968998482273</v>
       </c>
       <c r="G219" t="n">
-        <v>23618946683</v>
+        <v>1391405578</v>
       </c>
       <c r="H219" t="n">
-        <v>23.13055162303768</v>
+        <v>22.02159116304999</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;30_1.jpg</t>
+          <t>img101_3.jpg</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>269.0899310948957</v>
+        <v>381.6543954690962</v>
       </c>
       <c r="D220" t="n">
-        <v>9283.413684896494</v>
+        <v>6816.507968455304</v>
       </c>
       <c r="E220" t="n">
-        <v>2.932143675958205</v>
+        <v>0.563172065027052</v>
       </c>
       <c r="F220" t="n">
-        <v>8.097777570906139</v>
+        <v>6.595128978194372</v>
       </c>
       <c r="G220" t="n">
-        <v>21216898278</v>
+        <v>45683858</v>
       </c>
       <c r="H220" t="n">
-        <v>21.67485106889223</v>
+        <v>22.27098516542976</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>img156_3.jpg</t>
+          <t>img137_1.jpg</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>375.1115469004927</v>
+        <v>385.6713785842571</v>
       </c>
       <c r="D221" t="n">
-        <v>6766.509155552596</v>
+        <v>9255.778691053763</v>
       </c>
       <c r="E221" t="n">
-        <v>1.630937325984539</v>
+        <v>0.4447253606491003</v>
       </c>
       <c r="F221" t="n">
-        <v>7.986755947412585</v>
+        <v>7.230099785576035</v>
       </c>
       <c r="G221" t="n">
-        <v>1298296052</v>
+        <v>594394154</v>
       </c>
       <c r="H221" t="n">
-        <v>22.04313346874959</v>
+        <v>23.06263018117322</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>img101_3.jpg</t>
+          <t>img53_2.jpg</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>397.928712139867</v>
+        <v>298.6599754757255</v>
       </c>
       <c r="D222" t="n">
-        <v>6816.507968455304</v>
+        <v>9204.011008391437</v>
       </c>
       <c r="E222" t="n">
-        <v>0.563172065027052</v>
+        <v>0.8129801157132732</v>
       </c>
       <c r="F222" t="n">
-        <v>6.595128978194372</v>
+        <v>7.315846219748902</v>
       </c>
       <c r="G222" t="n">
-        <v>45683858</v>
+        <v>76439271</v>
       </c>
       <c r="H222" t="n">
-        <v>22.27098516542976</v>
+        <v>22.81575312528178</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>img49_3.jpg</t>
+          <t>img30_4.jpg</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>429.3719257711687</v>
+        <v>484.4203329217931</v>
       </c>
       <c r="D223" t="n">
-        <v>10379.864883875</v>
+        <v>9437.039065274314</v>
       </c>
       <c r="E223" t="n">
-        <v>0.2975509942146294</v>
+        <v>-2.285757072222226</v>
       </c>
       <c r="F223" t="n">
-        <v>6.30553144635442</v>
+        <v>8.297106068470505</v>
       </c>
       <c r="G223" t="n">
-        <v>634514319</v>
+        <v>268004449</v>
       </c>
       <c r="H223" t="n">
-        <v>23.20125789739248</v>
+        <v>22.72206404895974</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>img128_2.jpg</t>
+          <t>img75_4.jpg</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>307.8617221873036</v>
+        <v>381.2172158587119</v>
       </c>
       <c r="D224" t="n">
-        <v>6594.137161579453</v>
+        <v>13672.67680324979</v>
       </c>
       <c r="E224" t="n">
-        <v>0.2805178782184831</v>
+        <v>0.2354409941968509</v>
       </c>
       <c r="F224" t="n">
-        <v>6.766733592690224</v>
+        <v>5.421576037352703</v>
       </c>
       <c r="G224" t="n">
-        <v>849078</v>
+        <v>365985375</v>
       </c>
       <c r="H224" t="n">
-        <v>21.92076629447292</v>
+        <v>23.6211539657517</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>img130_2.jpg</t>
+          <t>img83_4.jpg</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>298.2655723905724</v>
+        <v>341.6102573058564</v>
       </c>
       <c r="D225" t="n">
-        <v>10478.55966205794</v>
+        <v>13227.12414765535</v>
       </c>
       <c r="E225" t="n">
-        <v>1.810833593297347</v>
+        <v>0.8398422851846032</v>
       </c>
       <c r="F225" t="n">
-        <v>7.160318964209178</v>
+        <v>5.629265264291993</v>
       </c>
       <c r="G225" t="n">
-        <v>428296</v>
+        <v>291008608</v>
       </c>
       <c r="H225" t="n">
-        <v>22.63367334738267</v>
+        <v>23.26677501847128</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>img109_2.jpg</t>
+          <t>img55_2.jpg</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>279.8026113005452</v>
+        <v>436.0415546273333</v>
       </c>
       <c r="D226" t="n">
-        <v>6198.439016901031</v>
+        <v>8078.791622759889</v>
       </c>
       <c r="E226" t="n">
-        <v>3.624705525672417</v>
+        <v>-1.065053532267211</v>
       </c>
       <c r="F226" t="n">
-        <v>11.44439778351453</v>
+        <v>7.094269839410349</v>
       </c>
       <c r="G226" t="n">
-        <v>1488680416</v>
+        <v>432307944</v>
       </c>
       <c r="H226" t="n">
-        <v>21.00331478254959</v>
+        <v>22.59925276903203</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>img148_4.jpg</t>
+          <t>img47_3.jpg</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>441.1640644894321</v>
+        <v>494.568205083209</v>
       </c>
       <c r="D227" t="n">
-        <v>8073.607345947032</v>
+        <v>9650.871919677425</v>
       </c>
       <c r="E227" t="n">
-        <v>-1.246943816837473</v>
+        <v>-1.949400360961125</v>
       </c>
       <c r="F227" t="n">
-        <v>7.198662471264724</v>
+        <v>7.740733042535448</v>
       </c>
       <c r="G227" t="n">
-        <v>301342094</v>
+        <v>429048472</v>
       </c>
       <c r="H227" t="n">
-        <v>22.51332306386936</v>
+        <v>22.52651714117551</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>img46_4.jpg</t>
+          <t>img241_1.jpg</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>436.0040637739867</v>
+        <v>404.7146988214753</v>
       </c>
       <c r="D228" t="n">
-        <v>16600.66657233312</v>
+        <v>11175.33356510486</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.5872235340643376</v>
+        <v>0.9399862143196804</v>
       </c>
       <c r="F228" t="n">
-        <v>5.219004100582508</v>
+        <v>5.948693879351238</v>
       </c>
       <c r="G228" t="n">
-        <v>348140990</v>
+        <v>20665250</v>
       </c>
       <c r="H228" t="n">
-        <v>23.51153946001901</v>
+        <v>23.17590086931173</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>img267_2.jpg</t>
+          <t>img111_2.jpg</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>325.3825612446302</v>
+        <v>316.8972652033106</v>
       </c>
       <c r="D229" t="n">
-        <v>12907.16027669071</v>
+        <v>6002.297364108015</v>
       </c>
       <c r="E229" t="n">
-        <v>1.644258715538984</v>
+        <v>-0.009843987167071272</v>
       </c>
       <c r="F229" t="n">
-        <v>6.2335732038587</v>
+        <v>5.804471221705954</v>
       </c>
       <c r="G229" t="n">
-        <v>5146164</v>
+        <v>226647060</v>
       </c>
       <c r="H229" t="n">
-        <v>23.03232905199577</v>
+        <v>21.59712853050638</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>img134_1.jpg</t>
+          <t>img272_1.jpg</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>322.9890277405522</v>
+        <v>286.5385976724055</v>
       </c>
       <c r="D230" t="n">
-        <v>7227.223740447031</v>
+        <v>7181.314405432963</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8745884491062442</v>
+        <v>1.73493208722086</v>
       </c>
       <c r="F230" t="n">
-        <v>7.346607344023422</v>
+        <v>8.694914459028308</v>
       </c>
       <c r="G230" t="n">
-        <v>67874490</v>
+        <v>51247099</v>
       </c>
       <c r="H230" t="n">
-        <v>22.38674985090892</v>
+        <v>22.41546449256098</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>img21_4.jpg</t>
+          <t>img233_2.jpg</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>354.6593987696182</v>
+        <v>277.1162913441239</v>
       </c>
       <c r="D231" t="n">
-        <v>11968.65380197538</v>
+        <v>8530.629895016866</v>
       </c>
       <c r="E231" t="n">
-        <v>-0.05144322981920382</v>
+        <v>1.268131286193264</v>
       </c>
       <c r="F231" t="n">
-        <v>5.05379792664684</v>
+        <v>7.316595714753742</v>
       </c>
       <c r="G231" t="n">
-        <v>19579405419</v>
+        <v>2375994</v>
       </c>
       <c r="H231" t="n">
-        <v>23.01153408154369</v>
+        <v>22.60953117623367</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>img52_3.jpg</t>
+          <t>2023-09-13&amp;28_1.jpg</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>462.6763165325559</v>
+        <v>180.9667207973237</v>
       </c>
       <c r="D232" t="n">
-        <v>11796.46482957647</v>
+        <v>9212.700991833221</v>
       </c>
       <c r="E232" t="n">
-        <v>-1.013734953774398</v>
+        <v>2.791988568129106</v>
       </c>
       <c r="F232" t="n">
-        <v>6.387630008346254</v>
+        <v>9.352922456484272</v>
       </c>
       <c r="G232" t="n">
-        <v>4748300735</v>
+        <v>65823947896</v>
       </c>
       <c r="H232" t="n">
-        <v>23.2144769771111</v>
+        <v>21.09707807081465</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>img10_2.jpg</t>
+          <t>img92_5.jpg</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>409.6778550045555</v>
+        <v>448.0173498254484</v>
       </c>
       <c r="D233" t="n">
-        <v>8277.478248886588</v>
+        <v>12899.30681171093</v>
       </c>
       <c r="E233" t="n">
-        <v>1.225211793954451</v>
+        <v>-1.609834338756576</v>
       </c>
       <c r="F233" t="n">
-        <v>7.43998283710701</v>
+        <v>6.060468241874574</v>
       </c>
       <c r="G233" t="n">
-        <v>2869080002</v>
+        <v>296537620</v>
       </c>
       <c r="H233" t="n">
-        <v>22.47183899133711</v>
+        <v>23.14351003922388</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>img281_2.jpg</t>
+          <t>img166_3.jpg</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>318.029487804878</v>
+        <v>349.6692371334275</v>
       </c>
       <c r="D234" t="n">
-        <v>6544.061915786437</v>
+        <v>8663.467216611229</v>
       </c>
       <c r="E234" t="n">
-        <v>0.6506239981571668</v>
+        <v>0.27717925552029</v>
       </c>
       <c r="F234" t="n">
-        <v>7.094965917323078</v>
+        <v>5.69564923006695</v>
       </c>
       <c r="G234" t="n">
-        <v>32682304</v>
+        <v>3635761230</v>
       </c>
       <c r="H234" t="n">
-        <v>22.28046715426691</v>
+        <v>22.52713426498355</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>img96_4.jpg</t>
+          <t>img160_4.jpg</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>409.6395737397612</v>
+        <v>383.7133011132842</v>
       </c>
       <c r="D235" t="n">
-        <v>10336.96847272856</v>
+        <v>12278.00612328217</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.680937958346614</v>
+        <v>-0.05129741717364175</v>
       </c>
       <c r="F235" t="n">
-        <v>5.469019086070934</v>
+        <v>5.349507357614574</v>
       </c>
       <c r="G235" t="n">
-        <v>362938084</v>
+        <v>709756030</v>
       </c>
       <c r="H235" t="n">
-        <v>22.84036114892143</v>
+        <v>23.1125408438121</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>img41_1.jpg</t>
+          <t>img229_2.jpg</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>323.5582624677101</v>
+        <v>280.5855543874837</v>
       </c>
       <c r="D236" t="n">
-        <v>6321.22419949883</v>
+        <v>10476.8805880122</v>
       </c>
       <c r="E236" t="n">
-        <v>1.601165022229793</v>
+        <v>1.762053246057299</v>
       </c>
       <c r="F236" t="n">
-        <v>9.876015133008988</v>
+        <v>6.788253422354437</v>
       </c>
       <c r="G236" t="n">
-        <v>2408798417</v>
+        <v>5413589</v>
       </c>
       <c r="H236" t="n">
-        <v>22.10919114025576</v>
+        <v>22.51463274086746</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>img20_4.jpg</t>
+          <t>img278_1.jpg</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>354.3523321426723</v>
+        <v>347.5680392156863</v>
       </c>
       <c r="D237" t="n">
-        <v>12737.15891200675</v>
+        <v>6042.889375124951</v>
       </c>
       <c r="E237" t="n">
-        <v>0.5233048652165467</v>
+        <v>0.1135466034436123</v>
       </c>
       <c r="F237" t="n">
-        <v>5.355825595411111</v>
+        <v>8.909990897312673</v>
       </c>
       <c r="G237" t="n">
-        <v>15081326000</v>
+        <v>4655454</v>
       </c>
       <c r="H237" t="n">
-        <v>23.48844468972617</v>
+        <v>22.38505468571991</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>img39_3.jpg</t>
+          <t>img173_4.jpg</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>321.2159667332756</v>
+        <v>443.4708443724855</v>
       </c>
       <c r="D238" t="n">
-        <v>10407.39323914402</v>
+        <v>13904.29291011805</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.01455194385173323</v>
+        <v>-0.2189910199419056</v>
       </c>
       <c r="F238" t="n">
-        <v>5.921755937248617</v>
+        <v>5.629132565624631</v>
       </c>
       <c r="G238" t="n">
-        <v>3931653880</v>
+        <v>120729990</v>
       </c>
       <c r="H238" t="n">
-        <v>23.02905011212203</v>
+        <v>23.15368132522316</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>img111_2.jpg</t>
+          <t>img38_3.jpg</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>354.7444324497221</v>
+        <v>376.682191249232</v>
       </c>
       <c r="D239" t="n">
-        <v>6002.297364108015</v>
+        <v>10548.46640740705</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.009843987167071272</v>
+        <v>-0.4974833829571672</v>
       </c>
       <c r="F239" t="n">
-        <v>5.804471221705954</v>
+        <v>6.586797677469831</v>
       </c>
       <c r="G239" t="n">
-        <v>226647060</v>
+        <v>1626820726</v>
       </c>
       <c r="H239" t="n">
-        <v>21.59712853050638</v>
+        <v>22.95948050044933</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>img294_2.jpg</t>
+          <t>img79_4.jpg</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>365.0130043086565</v>
+        <v>356.3741312541953</v>
       </c>
       <c r="D240" t="n">
-        <v>6807.293215663423</v>
+        <v>12399.61316933461</v>
       </c>
       <c r="E240" t="n">
-        <v>0.6633315373828372</v>
+        <v>0.2307768888173385</v>
       </c>
       <c r="F240" t="n">
-        <v>7.336483028197353</v>
+        <v>5.086014035841571</v>
       </c>
       <c r="G240" t="n">
-        <v>12163428</v>
+        <v>566940162</v>
       </c>
       <c r="H240" t="n">
-        <v>22.42467741026521</v>
+        <v>23.23621115866982</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>img13_3.jpg</t>
+          <t>img288_2.jpg</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>353.6500291933363</v>
+        <v>480.7420591456736</v>
       </c>
       <c r="D241" t="n">
-        <v>12832.49828070711</v>
+        <v>6946.21794356556</v>
       </c>
       <c r="E241" t="n">
-        <v>1.094631281699333</v>
+        <v>-1.008859756654196</v>
       </c>
       <c r="F241" t="n">
-        <v>5.841030333499372</v>
+        <v>7.031612486637626</v>
       </c>
       <c r="G241" t="n">
-        <v>7665283016</v>
+        <v>4232954</v>
       </c>
       <c r="H241" t="n">
-        <v>23.45777030746414</v>
+        <v>22.31994722182177</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>img50_4.jpg</t>
+          <t>img165_3.jpg</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>484.7886382093691</v>
+        <v>355.8957224748949</v>
       </c>
       <c r="D242" t="n">
-        <v>11864.96814201543</v>
+        <v>11663.3480536555</v>
       </c>
       <c r="E242" t="n">
-        <v>-1.552319860265473</v>
+        <v>0.444415590042153</v>
       </c>
       <c r="F242" t="n">
-        <v>6.947675285229891</v>
+        <v>5.897204217596666</v>
       </c>
       <c r="G242" t="n">
-        <v>1040872723</v>
+        <v>5179045893</v>
       </c>
       <c r="H242" t="n">
-        <v>23.20097283660564</v>
+        <v>23.42320051957796</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>img133_2.jpg</t>
+          <t>img14_4.jpg</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>367.9134920634921</v>
+        <v>395.7381585102465</v>
       </c>
       <c r="D243" t="n">
-        <v>10722.05960915848</v>
+        <v>11830.82278384718</v>
       </c>
       <c r="E243" t="n">
-        <v>0.04715247225788675</v>
+        <v>-1.167731746193071</v>
       </c>
       <c r="F243" t="n">
-        <v>5.851655374011306</v>
+        <v>5.443256117494482</v>
       </c>
       <c r="G243" t="n">
-        <v>104570</v>
+        <v>4966137013</v>
       </c>
       <c r="H243" t="n">
-        <v>22.92491509760932</v>
+        <v>22.64586468123234</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2023-09-13&amp;1106_3.jpg</t>
+          <t>img293_3.jpg</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>414.0391814984225</v>
+        <v>125.3040465631929</v>
       </c>
       <c r="D244" t="n">
-        <v>7836.374289439174</v>
+        <v>1431.913072021046</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.127132322830146</v>
+        <v>2.668670262601033</v>
       </c>
       <c r="F244" t="n">
-        <v>7.568457588515779</v>
+        <v>12.74040364452027</v>
       </c>
       <c r="G244" t="n">
-        <v>24023646854</v>
+        <v>5478830</v>
       </c>
       <c r="H244" t="n">
-        <v>22.87511311134059</v>
+        <v>18.79768516753903</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>img129_1.jpg</t>
+          <t>img143_4.jpg</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>358.937030075188</v>
+        <v>388.3646752513852</v>
       </c>
       <c r="D245" t="n">
-        <v>11523.77340506262</v>
+        <v>11018.48303746333</v>
       </c>
       <c r="E245" t="n">
-        <v>0.8602192083378375</v>
+        <v>0.02874696954713966</v>
       </c>
       <c r="F245" t="n">
-        <v>6.569440482238539</v>
+        <v>5.124849887319707</v>
       </c>
       <c r="G245" t="n">
-        <v>167228</v>
+        <v>411832920</v>
       </c>
       <c r="H245" t="n">
-        <v>22.98977943934504</v>
+        <v>22.80646099622004</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>img112_2.jpg</t>
+          <t>img290_3.jpg</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>334.7845476595477</v>
+        <v>397.8796893908834</v>
       </c>
       <c r="D246" t="n">
-        <v>7019.348343664299</v>
+        <v>12395.99968146102</v>
       </c>
       <c r="E246" t="n">
-        <v>2.654179774493197</v>
+        <v>-0.1702612172488437</v>
       </c>
       <c r="F246" t="n">
-        <v>9.32389421091785</v>
+        <v>5.307173826281863</v>
       </c>
       <c r="G246" t="n">
-        <v>444997198</v>
+        <v>5652144</v>
       </c>
       <c r="H246" t="n">
-        <v>21.52094556651834</v>
+        <v>23.34329124896997</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>img23_2.jpg</t>
+          <t>img289_3.jpg</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>330.436703738513</v>
+        <v>153.1528441163699</v>
       </c>
       <c r="D247" t="n">
-        <v>8814.82236766753</v>
+        <v>2146.548130998873</v>
       </c>
       <c r="E247" t="n">
-        <v>0.740185299143578</v>
+        <v>1.790994268282938</v>
       </c>
       <c r="F247" t="n">
-        <v>7.427029246123386</v>
+        <v>7.665504729232724</v>
       </c>
       <c r="G247" t="n">
-        <v>9182854962</v>
+        <v>3497476</v>
       </c>
       <c r="H247" t="n">
-        <v>22.44027608251162</v>
+        <v>19.31333984418873</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>img73_3.jpg</t>
+          <t>img266_3.jpg</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>490.8049653607358</v>
+        <v>408.7600596125186</v>
       </c>
       <c r="D248" t="n">
-        <v>11463.41592622595</v>
+        <v>12376.652750978</v>
       </c>
       <c r="E248" t="n">
-        <v>-1.696081387810028</v>
+        <v>-0.3212522124515089</v>
       </c>
       <c r="F248" t="n">
-        <v>6.757751713825924</v>
+        <v>5.792052887068708</v>
       </c>
       <c r="G248" t="n">
-        <v>319546377</v>
+        <v>2148498</v>
       </c>
       <c r="H248" t="n">
-        <v>22.6442277223348</v>
+        <v>23.31123782751222</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>img7_1.jpg</t>
+          <t>img295_3.jpg</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>385.8522187176462</v>
+        <v>437.3925231196458</v>
       </c>
       <c r="D249" t="n">
-        <v>10509.81624074108</v>
+        <v>10484.30870657374</v>
       </c>
       <c r="E249" t="n">
-        <v>0.2968714430666661</v>
+        <v>-0.8703394994280276</v>
       </c>
       <c r="F249" t="n">
-        <v>6.781418468330051</v>
+        <v>6.219352641189223</v>
       </c>
       <c r="G249" t="n">
-        <v>2526118442</v>
+        <v>23819783</v>
       </c>
       <c r="H249" t="n">
-        <v>23.41099307314177</v>
+        <v>23.05318645417079</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>img110_3.jpg</t>
+          <t>img144_2.jpg</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>587.8656299143805</v>
+        <v>414.9328810567181</v>
       </c>
       <c r="D250" t="n">
-        <v>7999.187289699839</v>
+        <v>9775.172134107532</v>
       </c>
       <c r="E250" t="n">
-        <v>-1.977264901661614</v>
+        <v>-0.2274396414721084</v>
       </c>
       <c r="F250" t="n">
-        <v>7.727729877841862</v>
+        <v>6.547034315726113</v>
       </c>
       <c r="G250" t="n">
-        <v>1127116172</v>
+        <v>1012338312</v>
       </c>
       <c r="H250" t="n">
-        <v>21.73837746197745</v>
+        <v>23.12060847948854</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>img70_4.jpg</t>
+          <t>img88_5.jpg</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>593.3275918784029</v>
+        <v>454.6319172419763</v>
       </c>
       <c r="D251" t="n">
-        <v>10122.96830231853</v>
+        <v>12610.51395697258</v>
       </c>
       <c r="E251" t="n">
-        <v>-3.862726049713145</v>
+        <v>-1.352522480595186</v>
       </c>
       <c r="F251" t="n">
-        <v>11.49652874058003</v>
+        <v>5.833867403202603</v>
       </c>
       <c r="G251" t="n">
-        <v>975670362</v>
+        <v>311665123</v>
       </c>
       <c r="H251" t="n">
-        <v>21.71368543149562</v>
+        <v>23.18877438557476</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>img69_3.jpg</t>
+          <t>img129_1.jpg</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>464.8710768485631</v>
+        <v>326.3555764411028</v>
       </c>
       <c r="D252" t="n">
-        <v>9692.021252545701</v>
+        <v>11523.77340506262</v>
       </c>
       <c r="E252" t="n">
-        <v>-1.023402429370998</v>
+        <v>0.8602192083378375</v>
       </c>
       <c r="F252" t="n">
-        <v>6.587323334173513</v>
+        <v>6.569440482238539</v>
       </c>
       <c r="G252" t="n">
-        <v>256896402</v>
+        <v>167228</v>
       </c>
       <c r="H252" t="n">
-        <v>22.96376371978785</v>
+        <v>22.98977943934504</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>img284_3.jpg</t>
+          <t>img20_4.jpg</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>348.8173528880938</v>
+        <v>348.4058888831369</v>
       </c>
       <c r="D253" t="n">
-        <v>10674.03813090926</v>
+        <v>12737.15891200675</v>
       </c>
       <c r="E253" t="n">
-        <v>1.735967713885179</v>
+        <v>0.5233048652165467</v>
       </c>
       <c r="F253" t="n">
-        <v>6.756968571034617</v>
+        <v>5.355825595411111</v>
       </c>
       <c r="G253" t="n">
-        <v>286794585</v>
+        <v>15081326000</v>
       </c>
       <c r="H253" t="n">
-        <v>22.79067632359221</v>
+        <v>23.48844468972617</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>img297_3.jpg</t>
+          <t>2023-09-13&amp;m49_3.jpg</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>365.61391966759</v>
+        <v>381.8168549600307</v>
       </c>
       <c r="D254" t="n">
-        <v>9160.515142983006</v>
+        <v>7777.775830208674</v>
       </c>
       <c r="E254" t="n">
-        <v>0.4577425302988465</v>
+        <v>-0.8675733061680939</v>
       </c>
       <c r="F254" t="n">
-        <v>6.654557015810307</v>
+        <v>7.465819277140762</v>
       </c>
       <c r="G254" t="n">
-        <v>11809240</v>
+        <v>35870092806</v>
       </c>
       <c r="H254" t="n">
-        <v>22.77923801060465</v>
+        <v>22.56590632762417</v>
       </c>
     </row>
   </sheetData>
